--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,150 +501,130 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>ratio_turistas_residentes_cat</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Agua_Potable_cat</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -689,74 +669,74 @@
         <v>8.09523773193359</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.690327763557434</v>
+        <v>-1.19008219242096</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.600906729698181</v>
+        <v>-0.601831138134003</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>24.761905670166</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>10.370490343517</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
-      </c>
-      <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
+        <v>95.93186989979669</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>95.93186989979669</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -766,46 +746,30 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -842,76 +806,72 @@
         <v>9.0476188659668</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.536168873310089</v>
+        <v>-1.20482385158539</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.590893149375916</v>
+        <v>-0.477475792169571</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>17.619047164917</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="U3" t="n">
-        <v>98.7208232501016</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>96.2465784166378</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -919,44 +879,32 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1001,95 +949,99 @@
         <v>9.0476188659668</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.530632019042969</v>
+        <v>-1.25143277645111</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.495982348918915</v>
+        <v>-0.448036134243011</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
-      </c>
-      <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
+        <v>96.5629903922749</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>96.5629903922749</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1097,27 +1049,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1154,70 +1086,66 @@
         <v>11.7924528121948</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.454036295413971</v>
+        <v>-1.32450354099274</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.514722347259521</v>
+        <v>-0.301445573568344</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
-      </c>
+        <v>20.4761905670166</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>20.4761905670166</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>14.40146578074217</v>
+      </c>
+      <c r="S5" t="n">
+        <v>98.7558675337883</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
+        <v>96.88100077372481</v>
       </c>
       <c r="U5" t="n">
-        <v>98.7558675337883</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>96.88100077372481</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1225,44 +1153,32 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1305,113 +1221,97 @@
         <v>12.2641506195068</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.251354306936264</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.655317544937134</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
-      </c>
+        <v>21.9047622680664</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>21.9047622680664</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>9.152799593248035</v>
+      </c>
+      <c r="S6" t="n">
+        <v>98.7614152226307</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
-      </c>
-      <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
+        <v>97.2005582635653</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>97.2005582635653</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1444,37 +1344,41 @@
         <v>11.7924528121948</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.44617161154747</v>
+        <v>-1.48189222812653</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.810433626174927</v>
+        <v>-0.317483067512512</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
-      </c>
+        <v>31.4285717010498</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>31.4285717010498</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>5.04493288977539</v>
+      </c>
+      <c r="S7" t="n">
+        <v>98.7671898041778</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.04493288977539</v>
+        <v>97.5215610615812</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7671898041778</v>
-      </c>
-      <c r="V7" t="n">
-        <v>97.5215610615812</v>
-      </c>
-      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1482,67 +1386,47 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AL7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1585,35 +1469,39 @@
         <v>14.6226415634155</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.457696795463562</v>
+        <v>-1.50513410568237</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.70594334602356</v>
+        <v>-0.260645717382431</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
-      </c>
+        <v>34.2857131958008</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>34.2857131958008</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>5.214049405130415</v>
+      </c>
+      <c r="S8" t="n">
+        <v>98.7679087029408</v>
+      </c>
       <c r="T8" t="n">
-        <v>5.214049405130415</v>
-      </c>
-      <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1621,30 +1509,26 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1654,18 +1538,18 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1674,22 +1558,6 @@
         </is>
       </c>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1724,68 +1592,64 @@
         <v>14.6226415634155</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.448231309652328</v>
+        <v>-1.45044994354248</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.678962171077728</v>
+        <v>-0.26560452580452</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
-      </c>
+        <v>24.5283012390137</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>24.5283012390137</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>13.8956609775178</v>
+      </c>
+      <c r="S9" t="n">
+        <v>98.76885789947001</v>
+      </c>
       <c r="T9" t="n">
-        <v>13.8956609775178</v>
+        <v>97.5287500099944</v>
       </c>
       <c r="U9" t="n">
-        <v>98.76885789947001</v>
-      </c>
-      <c r="V9" t="n">
-        <v>97.5287500099944</v>
-      </c>
-      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1793,16 +1657,20 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -1810,23 +1678,7 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1865,31 +1717,35 @@
         <v>16.5876770019531</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.239516973495483</v>
+        <v>-1.37938976287842</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.7477903962135311</v>
+        <v>-0.184178426861763</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
+        <v>26.8867931365967</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>26.8867931365967</v>
+        <v>33.88477631155459</v>
       </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>33.88477631155459</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1897,63 +1753,43 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1981,11 +1817,11 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>28.27058993220828</v>
+      </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>28.27058993220828</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1993,34 +1829,30 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,130 +501,150 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Efectividad_Gubernamental</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental_cat</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -669,74 +689,74 @@
         <v>8.09523773193359</v>
       </c>
       <c r="N2" t="n">
+        <v>-0.690327763557434</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.600906729698181</v>
+      </c>
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -746,30 +766,46 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -806,72 +842,76 @@
         <v>9.0476188659668</v>
       </c>
       <c r="N3" t="n">
+        <v>-0.536168873310089</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.590893149375916</v>
+      </c>
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -879,32 +919,44 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -949,99 +1001,95 @@
         <v>9.0476188659668</v>
       </c>
       <c r="N4" t="n">
+        <v>-0.530632019042969</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.495982348918915</v>
+      </c>
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1049,7 +1097,27 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1086,66 +1154,70 @@
         <v>11.7924528121948</v>
       </c>
       <c r="N5" t="n">
+        <v>-0.454036295413971</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.514722347259521</v>
+      </c>
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1153,32 +1225,44 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1221,97 +1305,113 @@
         <v>12.2641506195068</v>
       </c>
       <c r="N6" t="n">
+        <v>-0.251354306936264</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.655317544937134</v>
+      </c>
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1344,41 +1444,37 @@
         <v>11.7924528121948</v>
       </c>
       <c r="N7" t="n">
+        <v>-0.44617161154747</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.810433626174927</v>
+      </c>
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1386,47 +1482,67 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1469,39 +1585,35 @@
         <v>14.6226415634155</v>
       </c>
       <c r="N8" t="n">
+        <v>-0.457696795463562</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.70594334602356</v>
+      </c>
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1509,26 +1621,30 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1538,18 +1654,18 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1558,6 +1674,22 @@
         </is>
       </c>
       <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1592,64 +1724,68 @@
         <v>14.6226415634155</v>
       </c>
       <c r="N9" t="n">
+        <v>-0.448231309652328</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.678962171077728</v>
+      </c>
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1657,20 +1793,16 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -1678,7 +1810,23 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1717,35 +1865,31 @@
         <v>16.5876770019531</v>
       </c>
       <c r="N10" t="n">
+        <v>-0.239516973495483</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.7477903962135311</v>
+      </c>
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1753,43 +1897,63 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1817,11 +1981,11 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1829,30 +1993,34 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,150 +501,140 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Control_Corrupcion</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -689,36 +679,38 @@
         <v>8.09523773193359</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.690327763557434</v>
+        <v>-0.600906729698181</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.600906729698181</v>
+        <v>-1.19008219242096</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>-0.601831138134003</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>24.761905670166</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>10.370490343517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
-      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -726,12 +718,12 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -741,43 +733,43 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -787,25 +779,15 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -842,38 +824,40 @@
         <v>9.0476188659668</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.536168873310089</v>
+        <v>-0.590893149375916</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.590893149375916</v>
+        <v>-1.20482385158539</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>-0.477475792169571</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>17.619047164917</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="U3" t="n">
-        <v>98.7208232501016</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="V3" t="n">
-        <v>96.2465784166378</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -881,12 +865,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -896,39 +880,39 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -938,25 +922,15 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1001,36 +975,38 @@
         <v>9.0476188659668</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.530632019042969</v>
+        <v>-0.495982348918915</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.495982348918915</v>
+        <v>-1.25143277645111</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>-0.448036134243011</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
-      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1038,12 +1014,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1053,17 +1029,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1071,25 +1047,25 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1099,7 +1075,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1107,17 +1083,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1154,36 +1120,38 @@
         <v>11.7924528121948</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.454036295413971</v>
+        <v>-0.514722347259521</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.514722347259521</v>
+        <v>-1.32450354099274</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
+        <v>-0.301445573568344</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
-      </c>
-      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>14.40146578074217</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
+        <v>98.7558675337883</v>
       </c>
       <c r="U5" t="n">
-        <v>98.7558675337883</v>
+        <v>96.88100077372481</v>
       </c>
       <c r="V5" t="n">
-        <v>96.88100077372481</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1191,12 +1159,12 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1204,29 +1172,29 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1234,17 +1202,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1253,16 +1221,6 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1305,34 +1263,36 @@
         <v>12.2641506195068</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.251354306936264</v>
+        <v>-0.655317544937134</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.655317544937134</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
-      </c>
-      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>9.152799593248035</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
+        <v>98.7614152226307</v>
       </c>
       <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
-      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1340,12 +1300,12 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1353,30 +1313,26 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1385,33 +1341,27 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1444,34 +1394,36 @@
         <v>11.7924528121948</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.44617161154747</v>
+        <v>-0.810433626174927</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.810433626174927</v>
+        <v>-1.48189222812653</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
+        <v>-0.317483067512512</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
-      </c>
-      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>5.04493288977539</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.04493288977539</v>
+        <v>98.7671898041778</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7671898041778</v>
+        <v>97.5215610615812</v>
       </c>
       <c r="V7" t="n">
-        <v>97.5215610615812</v>
-      </c>
-      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1479,41 +1431,37 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1523,26 +1471,20 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1585,32 +1527,34 @@
         <v>14.6226415634155</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.457696795463562</v>
+        <v>-0.70594334602356</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.70594334602356</v>
+        <v>-1.50513410568237</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
+        <v>-0.260645717382431</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
-      </c>
-      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>5.214049405130415</v>
+      </c>
       <c r="T8" t="n">
-        <v>5.214049405130415</v>
+        <v>98.7679087029408</v>
       </c>
       <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1618,78 +1562,68 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1724,34 +1658,36 @@
         <v>14.6226415634155</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.448231309652328</v>
+        <v>-0.678962171077728</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.678962171077728</v>
+        <v>-1.45044994354248</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
+        <v>-0.26560452580452</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
-      </c>
-      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>13.8956609775178</v>
+      </c>
       <c r="T9" t="n">
-        <v>13.8956609775178</v>
+        <v>98.76885789947001</v>
       </c>
       <c r="U9" t="n">
-        <v>98.76885789947001</v>
+        <v>97.5287500099944</v>
       </c>
       <c r="V9" t="n">
-        <v>97.5287500099944</v>
-      </c>
-      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1759,12 +1695,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1772,61 +1708,51 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1865,28 +1791,30 @@
         <v>16.5876770019531</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.239516973495483</v>
+        <v>-0.7477903962135311</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.7477903962135311</v>
+        <v>-1.37938976287842</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
+        <v>-0.184178426861763</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
-      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
         <v>33.88477631155459</v>
       </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1894,66 +1822,56 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1982,10 +1900,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
+      <c r="S11" t="n">
         <v>28.27058993220828</v>
       </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1995,32 +1913,30 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,140 +501,150 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Efectividad_Gubernamental</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental_cat</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -679,38 +689,36 @@
         <v>8.09523773193359</v>
       </c>
       <c r="N2" t="n">
+        <v>-0.690327763557434</v>
+      </c>
+      <c r="O2" t="n">
         <v>-0.600906729698181</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -718,12 +726,12 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -733,43 +741,43 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -779,15 +787,25 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -824,40 +842,38 @@
         <v>9.0476188659668</v>
       </c>
       <c r="N3" t="n">
+        <v>-0.536168873310089</v>
+      </c>
+      <c r="O3" t="n">
         <v>-0.590893149375916</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -865,12 +881,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -880,39 +896,39 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -922,15 +938,25 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -975,38 +1001,36 @@
         <v>9.0476188659668</v>
       </c>
       <c r="N4" t="n">
+        <v>-0.530632019042969</v>
+      </c>
+      <c r="O4" t="n">
         <v>-0.495982348918915</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1014,12 +1038,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1029,17 +1053,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1047,25 +1071,25 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1075,7 +1099,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1083,7 +1107,17 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1120,38 +1154,36 @@
         <v>11.7924528121948</v>
       </c>
       <c r="N5" t="n">
+        <v>-0.454036295413971</v>
+      </c>
+      <c r="O5" t="n">
         <v>-0.514722347259521</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1159,12 +1191,12 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1172,29 +1204,29 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1202,17 +1234,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1221,6 +1253,16 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1263,36 +1305,34 @@
         <v>12.2641506195068</v>
       </c>
       <c r="N6" t="n">
+        <v>-0.251354306936264</v>
+      </c>
+      <c r="O6" t="n">
         <v>-0.655317544937134</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1300,12 +1340,12 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1313,26 +1353,30 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1341,27 +1385,33 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1394,36 +1444,34 @@
         <v>11.7924528121948</v>
       </c>
       <c r="N7" t="n">
+        <v>-0.44617161154747</v>
+      </c>
+      <c r="O7" t="n">
         <v>-0.810433626174927</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1431,37 +1479,41 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1471,20 +1523,26 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1527,34 +1585,32 @@
         <v>14.6226415634155</v>
       </c>
       <c r="N8" t="n">
+        <v>-0.457696795463562</v>
+      </c>
+      <c r="O8" t="n">
         <v>-0.70594334602356</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1562,68 +1618,78 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1658,36 +1724,34 @@
         <v>14.6226415634155</v>
       </c>
       <c r="N9" t="n">
+        <v>-0.448231309652328</v>
+      </c>
+      <c r="O9" t="n">
         <v>-0.678962171077728</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1695,12 +1759,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1708,51 +1772,61 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1791,30 +1865,28 @@
         <v>16.5876770019531</v>
       </c>
       <c r="N10" t="n">
+        <v>-0.239516973495483</v>
+      </c>
+      <c r="O10" t="n">
         <v>-0.7477903962135311</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1822,56 +1894,66 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1900,10 +1982,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1913,30 +1995,32 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,52 +456,187 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual</t>
+          <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimensional_Porcentual</t>
+          <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral</t>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios</t>
+          <t>Tasa_Desempleo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Cantidad_Turistas_Año</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>IPC</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho_cat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental_cat</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas_cat</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica_cat</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios_cat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>IPC_cat</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo_cat</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes_cat</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable_cat</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento_cat</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria_cat</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -517,41 +652,142 @@
         <v>2.09892554805563</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2.9</v>
+        <v>61.7368302860934</v>
       </c>
       <c r="G2" t="n">
-        <v>61.7368302860934</v>
+        <v>47.3302106410428</v>
       </c>
       <c r="H2" t="n">
-        <v>47.3302106410428</v>
+        <v>13.052</v>
       </c>
       <c r="I2" t="n">
+        <v>9328000</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.978</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.09523773193359</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.690327763557434</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.600906729698181</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.19008219242096</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.601831138134003</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>24.761905670166</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.71791733156895</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10.370490343517</v>
+      </c>
+      <c r="T2" t="n">
+        <v>98.6914116257754</v>
+      </c>
+      <c r="U2" t="n">
+        <v>95.93186989979669</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>9.365711787770401</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -565,31 +801,144 @@
         <v>2.03468294927084</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>61.6008772488617</v>
+      </c>
       <c r="G3" t="n">
-        <v>61.6008772488617</v>
+        <v>47.5332383158435</v>
       </c>
       <c r="H3" t="n">
-        <v>47.5332383158435</v>
+        <v>12.45</v>
       </c>
       <c r="I3" t="n">
+        <v>5399000</v>
+      </c>
+      <c r="J3" t="n">
         <v>46.63</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
+      <c r="K3" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.0476188659668</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.536168873310089</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.590893149375916</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1.20482385158539</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.477475792169571</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>17.619047164917</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.50721254822527</v>
+      </c>
+      <c r="S3" t="n">
+        <v>13.81360621482896</v>
+      </c>
+      <c r="T3" t="n">
+        <v>98.7208232501016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>96.2465784166378</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.31164526623252</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -605,41 +954,142 @@
         <v>1.99817843887244</v>
       </c>
       <c r="E4" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>61.5289800193223</v>
       </c>
       <c r="G4" t="n">
-        <v>61.5289800193223</v>
+        <v>47.4089584400473</v>
       </c>
       <c r="H4" t="n">
-        <v>47.4089584400473</v>
+        <v>11.767</v>
       </c>
       <c r="I4" t="n">
+        <v>8292000</v>
+      </c>
+      <c r="J4" t="n">
         <v>44.95</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.0476188659668</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.530632019042969</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.495982348918915</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.25143277645111</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.448036134243011</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20.9523811340332</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.31152527182627</v>
+      </c>
+      <c r="S4" t="n">
+        <v>29.50660839400387</v>
+      </c>
+      <c r="T4" t="n">
+        <v>98.75057375600331</v>
+      </c>
+      <c r="U4" t="n">
+        <v>96.5629903922749</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>7.996446769427308</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -653,31 +1103,138 @@
         <v>1.89713831833082</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>61.5446717092144</v>
+      </c>
       <c r="G5" t="n">
-        <v>61.5446717092144</v>
+        <v>49.7118492005103</v>
       </c>
       <c r="H5" t="n">
-        <v>49.7118492005103</v>
+        <v>9.855</v>
       </c>
       <c r="I5" t="n">
+        <v>11346000</v>
+      </c>
+      <c r="J5" t="n">
         <v>43.299</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11.7924528121948</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.454036295413971</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.514722347259521</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.32450354099274</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.301445573568344</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20.4761905670166</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>14.40146578074217</v>
+      </c>
+      <c r="T5" t="n">
+        <v>98.7558675337883</v>
+      </c>
+      <c r="U5" t="n">
+        <v>96.88100077372481</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10.73597198026754</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -693,35 +1250,130 @@
         <v>1.75497438173801</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G6" t="n">
         <v>61.6643683303097</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>7.851</v>
+      </c>
       <c r="I6" t="n">
+        <v>13026000</v>
+      </c>
+      <c r="J6" t="n">
         <v>42.199</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12.2641506195068</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.251354306936264</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.655317544937134</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-1.44394659996033</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.332123339176178</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21.9047622680664</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>9.152799593248035</v>
+      </c>
+      <c r="T6" t="n">
+        <v>98.7614152226307</v>
+      </c>
+      <c r="U6" t="n">
+        <v>97.2005582635653</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>12.11122038834043</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -735,27 +1387,126 @@
         <v>1.62495386951696</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" t="n">
         <v>61.8346774314352</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>7.974</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>41.616</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.7924528121948</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.44617161154747</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.810433626174927</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-1.48189222812653</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.317483067512512</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>31.4285717010498</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>5.04493288977539</v>
+      </c>
+      <c r="T7" t="n">
+        <v>98.7671898041778</v>
+      </c>
+      <c r="U7" t="n">
+        <v>97.5215610615812</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -769,41 +1520,128 @@
         <v>1.4908053906311</v>
       </c>
       <c r="E8" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>62.0672499568481</v>
       </c>
       <c r="G8" t="n">
-        <v>62.0672499568481</v>
+        <v>52.9199600219727</v>
       </c>
       <c r="H8" t="n">
-        <v>52.9199600219727</v>
-      </c>
-      <c r="I8" t="n">
+        <v>7.441</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>42.987</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14.6226415634155</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.457696795463562</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.70594334602356</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1.50513410568237</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.260645717382431</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>34.2857131958008</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>5.214049405130415</v>
+      </c>
+      <c r="T8" t="n">
+        <v>98.7679087029408</v>
+      </c>
+      <c r="U8" t="n">
+        <v>97.5246503198928</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -817,31 +1655,130 @@
         <v>1.48609697540294</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>62.3202560966817</v>
+      </c>
       <c r="G9" t="n">
-        <v>62.3202560966817</v>
+        <v>54.3136582910509</v>
       </c>
       <c r="H9" t="n">
-        <v>54.3136582910509</v>
-      </c>
-      <c r="I9" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>42.837</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.6226415634155</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.448231309652328</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.678962171077728</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1.45044994354248</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.26560452580452</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>24.5283012390137</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>13.8956609775178</v>
+      </c>
+      <c r="T9" t="n">
+        <v>98.76885789947001</v>
+      </c>
+      <c r="U9" t="n">
+        <v>97.5287500099944</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.83938</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -857,33 +1794,114 @@
         <v>1.68834126904494</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>62.5951954232918</v>
+      </c>
       <c r="G10" t="n">
-        <v>62.5951954232918</v>
+        <v>55.6923702917355</v>
       </c>
       <c r="H10" t="n">
-        <v>55.6923702917355</v>
-      </c>
-      <c r="I10" t="n">
+        <v>6.753</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>44.669</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>16.5876770019531</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.239516973495483</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.7477903962135311</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-1.37938976287842</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.184178426861763</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>26.8867931365967</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>33.88477631155459</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -897,25 +1915,58 @@
         <v>1.73324205302065</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="F11" t="n">
         <v>62.8890495466693</v>
       </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>28.27058993220828</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,185 +456,195 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Pobreza_Poblacion_Porcentual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -652,65 +662,63 @@
         <v>2.09892554805563</v>
       </c>
       <c r="E2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2" t="n">
         <v>2.9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>61.7368302860934</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>47.3302106410428</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>13.052</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>9328000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>46.978</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>27.8</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>8.09523773193359</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-0.690327763557434</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>-0.600906729698181</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -723,7 +731,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -738,38 +746,38 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -779,15 +787,25 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -801,65 +819,61 @@
         <v>2.03468294927084</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>61.6008772488617</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>47.5332383158435</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>12.45</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>5399000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>46.63</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>29.9</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>9.0476188659668</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-0.536168873310089</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>-0.590893149375916</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -872,7 +886,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -887,38 +901,34 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -928,15 +938,25 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -954,65 +974,63 @@
         <v>1.99817843887244</v>
       </c>
       <c r="E4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>61.5289800193223</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>47.4089584400473</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>11.767</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>8292000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>44.95</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>33.1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>9.0476188659668</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.530632019042969</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>-0.495982348918915</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1025,7 +1043,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1040,7 +1058,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1050,28 +1068,28 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1081,7 +1099,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1089,7 +1107,17 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1103,63 +1131,59 @@
         <v>1.89713831833082</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>61.5446717092144</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>49.7118492005103</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>9.855</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>11346000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>43.299</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>31.2</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>11.7924528121948</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.454036295413971</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>-0.514722347259521</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1172,7 +1196,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1185,28 +1209,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1214,17 +1234,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1233,6 +1253,16 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1250,61 +1280,59 @@
         <v>1.75497438173801</v>
       </c>
       <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
         <v>2.8</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>61.6643683303097</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>7.851</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>13026000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>42.199</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>27.8</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>12.2641506195068</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-0.251354306936264</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>-0.655317544937134</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1317,7 +1345,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1330,21 +1358,25 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1353,27 +1385,33 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1387,57 +1425,53 @@
         <v>1.62495386951696</v>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>61.8346774314352</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>7.974</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
         <v>41.616</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>27.3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>11.7924528121948</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.44617161154747</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>-0.810433626174927</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1450,7 +1484,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1460,26 +1494,26 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1489,20 +1523,26 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1520,59 +1560,57 @@
         <v>1.4908053906311</v>
       </c>
       <c r="E8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>62.0672499568481</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>52.9199600219727</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>7.441</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
         <v>42.987</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>28.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>14.6226415634155</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.457696795463562</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>-0.70594334602356</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1585,7 +1623,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1595,53 +1633,63 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1655,59 +1703,55 @@
         <v>1.48609697540294</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>62.3202560966817</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>54.3136582910509</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>7.344</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
         <v>42.837</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>29.8</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>14.6226415634155</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>-0.448231309652328</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>-0.678962171077728</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1720,7 +1764,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1733,50 +1777,56 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1794,53 +1844,49 @@
         <v>1.68834126904494</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>62.5951954232918</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>55.6923702917355</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>6.753</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
         <v>44.669</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>30.8</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>16.5876770019531</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>-0.239516973495483</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>-0.7477903962135311</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1853,7 +1899,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1863,45 +1909,51 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1915,10 +1967,10 @@
         <v>1.73324205302065</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>62.8890495466693</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1930,10 +1982,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1944,29 +1996,31 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,155 +496,135 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica</t>
+          <t>Efectividad_Gubernamental</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>ratio_turistas_residentes_cat</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Agua_Potable_cat</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -686,77 +666,77 @@
         <v>27.8</v>
       </c>
       <c r="M2" t="n">
-        <v>8.09523773193359</v>
+        <v>-0.690327763557434</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.690327763557434</v>
+        <v>-1.19008219242096</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.600906729698181</v>
+        <v>-0.601831138134003</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>24.761905670166</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>10.370490343517</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
-      </c>
-      <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
+        <v>95.93186989979669</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>95.93186989979669</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -766,46 +746,30 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -839,79 +803,75 @@
         <v>29.9</v>
       </c>
       <c r="M3" t="n">
-        <v>9.0476188659668</v>
+        <v>-0.536168873310089</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.536168873310089</v>
+        <v>-1.20482385158539</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.590893149375916</v>
+        <v>-0.477475792169571</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>17.619047164917</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="U3" t="n">
-        <v>98.7208232501016</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>96.2465784166378</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -919,44 +879,32 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -998,98 +946,102 @@
         <v>33.1</v>
       </c>
       <c r="M4" t="n">
-        <v>9.0476188659668</v>
+        <v>-0.530632019042969</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.530632019042969</v>
+        <v>-1.25143277645111</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.495982348918915</v>
+        <v>-0.448036134243011</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
-      </c>
-      <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
+        <v>96.5629903922749</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>96.5629903922749</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1097,27 +1049,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1151,73 +1083,69 @@
         <v>31.2</v>
       </c>
       <c r="M5" t="n">
-        <v>11.7924528121948</v>
+        <v>-0.454036295413971</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.454036295413971</v>
+        <v>-1.32450354099274</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.514722347259521</v>
+        <v>-0.301445573568344</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
-      </c>
+        <v>20.4761905670166</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>20.4761905670166</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>14.40146578074217</v>
+      </c>
+      <c r="S5" t="n">
+        <v>98.7558675337883</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
+        <v>96.88100077372481</v>
       </c>
       <c r="U5" t="n">
-        <v>98.7558675337883</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>96.88100077372481</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1225,44 +1153,32 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1302,116 +1218,100 @@
         <v>27.8</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2641506195068</v>
+        <v>-0.251354306936264</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.251354306936264</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.655317544937134</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
-      </c>
+        <v>21.9047622680664</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>21.9047622680664</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>9.152799593248035</v>
+      </c>
+      <c r="S6" t="n">
+        <v>98.7614152226307</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
-      </c>
-      <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
+        <v>97.2005582635653</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>97.2005582635653</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1441,40 +1341,44 @@
         <v>27.3</v>
       </c>
       <c r="M7" t="n">
-        <v>11.7924528121948</v>
+        <v>-0.44617161154747</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.44617161154747</v>
+        <v>-1.48189222812653</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.810433626174927</v>
+        <v>-0.317483067512512</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
-      </c>
+        <v>31.4285717010498</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>31.4285717010498</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>5.04493288977539</v>
+      </c>
+      <c r="S7" t="n">
+        <v>98.7671898041778</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.04493288977539</v>
+        <v>97.5215610615812</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7671898041778</v>
-      </c>
-      <c r="V7" t="n">
-        <v>97.5215610615812</v>
-      </c>
-      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1482,67 +1386,47 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AL7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1582,38 +1466,42 @@
         <v>28.5</v>
       </c>
       <c r="M8" t="n">
-        <v>14.6226415634155</v>
+        <v>-0.457696795463562</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.457696795463562</v>
+        <v>-1.50513410568237</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.70594334602356</v>
+        <v>-0.260645717382431</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
-      </c>
+        <v>34.2857131958008</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>34.2857131958008</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>5.214049405130415</v>
+      </c>
+      <c r="S8" t="n">
+        <v>98.7679087029408</v>
+      </c>
       <c r="T8" t="n">
-        <v>5.214049405130415</v>
-      </c>
-      <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1621,30 +1509,26 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1654,18 +1538,18 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1674,22 +1558,6 @@
         </is>
       </c>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1721,71 +1589,67 @@
         <v>29.8</v>
       </c>
       <c r="M9" t="n">
-        <v>14.6226415634155</v>
+        <v>-0.448231309652328</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.448231309652328</v>
+        <v>-1.45044994354248</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.678962171077728</v>
+        <v>-0.26560452580452</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
-      </c>
+        <v>24.5283012390137</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>24.5283012390137</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>13.8956609775178</v>
+      </c>
+      <c r="S9" t="n">
+        <v>98.76885789947001</v>
+      </c>
       <c r="T9" t="n">
-        <v>13.8956609775178</v>
+        <v>97.5287500099944</v>
       </c>
       <c r="U9" t="n">
-        <v>98.76885789947001</v>
-      </c>
-      <c r="V9" t="n">
-        <v>97.5287500099944</v>
-      </c>
-      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1793,16 +1657,20 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -1810,23 +1678,7 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1862,34 +1714,38 @@
         <v>30.8</v>
       </c>
       <c r="M10" t="n">
-        <v>16.5876770019531</v>
+        <v>-0.239516973495483</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.239516973495483</v>
+        <v>-1.37938976287842</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.7477903962135311</v>
+        <v>-0.184178426861763</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
+        <v>26.8867931365967</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>26.8867931365967</v>
+        <v>33.88477631155459</v>
       </c>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>33.88477631155459</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1897,63 +1753,43 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1981,11 +1817,11 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>28.27058993220828</v>
+      </c>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>28.27058993220828</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1993,34 +1829,30 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,135 +496,155 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Estabilidad_Politica</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -666,77 +686,77 @@
         <v>27.8</v>
       </c>
       <c r="M2" t="n">
+        <v>8.09523773193359</v>
+      </c>
+      <c r="N2" t="n">
         <v>-0.690327763557434</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>-0.600906729698181</v>
+      </c>
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -746,30 +766,46 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -803,75 +839,79 @@
         <v>29.9</v>
       </c>
       <c r="M3" t="n">
+        <v>9.0476188659668</v>
+      </c>
+      <c r="N3" t="n">
         <v>-0.536168873310089</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>-0.590893149375916</v>
+      </c>
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -879,32 +919,44 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -946,102 +998,98 @@
         <v>33.1</v>
       </c>
       <c r="M4" t="n">
+        <v>9.0476188659668</v>
+      </c>
+      <c r="N4" t="n">
         <v>-0.530632019042969</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>-0.495982348918915</v>
+      </c>
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1049,7 +1097,27 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1083,69 +1151,73 @@
         <v>31.2</v>
       </c>
       <c r="M5" t="n">
+        <v>11.7924528121948</v>
+      </c>
+      <c r="N5" t="n">
         <v>-0.454036295413971</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>-0.514722347259521</v>
+      </c>
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1153,32 +1225,44 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1218,100 +1302,116 @@
         <v>27.8</v>
       </c>
       <c r="M6" t="n">
+        <v>12.2641506195068</v>
+      </c>
+      <c r="N6" t="n">
         <v>-0.251354306936264</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>-0.655317544937134</v>
+      </c>
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1341,44 +1441,40 @@
         <v>27.3</v>
       </c>
       <c r="M7" t="n">
+        <v>11.7924528121948</v>
+      </c>
+      <c r="N7" t="n">
         <v>-0.44617161154747</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
+        <v>-0.810433626174927</v>
+      </c>
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1386,47 +1482,67 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1466,42 +1582,38 @@
         <v>28.5</v>
       </c>
       <c r="M8" t="n">
+        <v>14.6226415634155</v>
+      </c>
+      <c r="N8" t="n">
         <v>-0.457696795463562</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
+        <v>-0.70594334602356</v>
+      </c>
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1509,26 +1621,30 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1538,18 +1654,18 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -1558,6 +1674,22 @@
         </is>
       </c>
       <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1589,67 +1721,71 @@
         <v>29.8</v>
       </c>
       <c r="M9" t="n">
+        <v>14.6226415634155</v>
+      </c>
+      <c r="N9" t="n">
         <v>-0.448231309652328</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
+        <v>-0.678962171077728</v>
+      </c>
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1657,20 +1793,16 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -1678,7 +1810,23 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1714,38 +1862,34 @@
         <v>30.8</v>
       </c>
       <c r="M10" t="n">
+        <v>16.5876770019531</v>
+      </c>
+      <c r="N10" t="n">
         <v>-0.239516973495483</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
+        <v>-0.7477903962135311</v>
+      </c>
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1753,43 +1897,63 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1817,11 +1981,11 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1829,30 +1993,34 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,165 +486,160 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Participacion_Fuerza_Laboral</t>
+          <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Inseguridad_Alimentaria</t>
+          <t>Estabilidad_Politica</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica</t>
+          <t>Efectividad_Gubernamental</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Control_Corrupcion</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -680,45 +675,47 @@
         <v>9328000</v>
       </c>
       <c r="K2" t="n">
-        <v>46.978</v>
+        <v>27.8</v>
       </c>
       <c r="L2" t="n">
-        <v>27.8</v>
+        <v>8.09523773193359</v>
       </c>
       <c r="M2" t="n">
-        <v>8.09523773193359</v>
+        <v>-0.690327763557434</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.690327763557434</v>
+        <v>-0.600906729698181</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.600906729698181</v>
+        <v>-1.19008219242096</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>-0.601831138134003</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>24.761905670166</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>10.370490343517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
-      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -731,7 +728,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -746,30 +743,30 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -777,17 +774,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -797,15 +794,10 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -833,47 +825,49 @@
         <v>5399000</v>
       </c>
       <c r="K3" t="n">
-        <v>46.63</v>
+        <v>29.9</v>
       </c>
       <c r="L3" t="n">
-        <v>29.9</v>
+        <v>9.0476188659668</v>
       </c>
       <c r="M3" t="n">
-        <v>9.0476188659668</v>
+        <v>-0.536168873310089</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.536168873310089</v>
+        <v>-0.590893149375916</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.590893149375916</v>
+        <v>-1.20482385158539</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>-0.477475792169571</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>17.619047164917</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="U3" t="n">
-        <v>98.7208232501016</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="V3" t="n">
-        <v>96.2465784166378</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -886,7 +880,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -901,26 +895,26 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -928,17 +922,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -948,15 +942,10 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -992,45 +981,47 @@
         <v>8292000</v>
       </c>
       <c r="K4" t="n">
-        <v>44.95</v>
+        <v>33.1</v>
       </c>
       <c r="L4" t="n">
-        <v>33.1</v>
+        <v>9.0476188659668</v>
       </c>
       <c r="M4" t="n">
-        <v>9.0476188659668</v>
+        <v>-0.530632019042969</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.530632019042969</v>
+        <v>-0.495982348918915</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.495982348918915</v>
+        <v>-1.25143277645111</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>-0.448036134243011</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
-      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1043,7 +1034,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1058,7 +1049,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1068,20 +1059,20 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1089,17 +1080,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1112,12 +1103,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1145,45 +1131,47 @@
         <v>11346000</v>
       </c>
       <c r="K5" t="n">
-        <v>43.299</v>
+        <v>31.2</v>
       </c>
       <c r="L5" t="n">
-        <v>31.2</v>
+        <v>11.7924528121948</v>
       </c>
       <c r="M5" t="n">
-        <v>11.7924528121948</v>
+        <v>-0.454036295413971</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.454036295413971</v>
+        <v>-0.514722347259521</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.514722347259521</v>
+        <v>-1.32450354099274</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
+        <v>-0.301445573568344</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
-      </c>
-      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>14.40146578074217</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
+        <v>98.7558675337883</v>
       </c>
       <c r="U5" t="n">
-        <v>98.7558675337883</v>
+        <v>96.88100077372481</v>
       </c>
       <c r="V5" t="n">
-        <v>96.88100077372481</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1196,7 +1184,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1209,24 +1197,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1239,12 +1227,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1258,11 +1246,6 @@
         </is>
       </c>
       <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1296,43 +1279,45 @@
         <v>13026000</v>
       </c>
       <c r="K6" t="n">
-        <v>42.199</v>
+        <v>27.8</v>
       </c>
       <c r="L6" t="n">
-        <v>27.8</v>
+        <v>12.2641506195068</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2641506195068</v>
+        <v>-0.251354306936264</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.251354306936264</v>
+        <v>-0.655317544937134</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.655317544937134</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
-      </c>
-      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>9.152799593248035</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
+        <v>98.7614152226307</v>
       </c>
       <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
-      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1345,7 +1330,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1358,42 +1343,42 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1403,15 +1388,10 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1435,43 +1415,45 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>41.616</v>
+        <v>27.3</v>
       </c>
       <c r="L7" t="n">
-        <v>27.3</v>
+        <v>11.7924528121948</v>
       </c>
       <c r="M7" t="n">
-        <v>11.7924528121948</v>
+        <v>-0.44617161154747</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.44617161154747</v>
+        <v>-0.810433626174927</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.810433626174927</v>
+        <v>-1.48189222812653</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
+        <v>-0.317483067512512</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
-      </c>
-      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>5.04493288977539</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.04493288977539</v>
+        <v>98.7671898041778</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7671898041778</v>
+        <v>97.5215610615812</v>
       </c>
       <c r="V7" t="n">
-        <v>97.5215610615812</v>
-      </c>
-      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1484,7 +1466,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1494,39 +1476,39 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1534,15 +1516,10 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1576,41 +1553,43 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>42.987</v>
+        <v>28.5</v>
       </c>
       <c r="L8" t="n">
-        <v>28.5</v>
+        <v>14.6226415634155</v>
       </c>
       <c r="M8" t="n">
-        <v>14.6226415634155</v>
+        <v>-0.457696795463562</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.457696795463562</v>
+        <v>-0.70594334602356</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.70594334602356</v>
+        <v>-1.50513410568237</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
+        <v>-0.260645717382431</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
-      </c>
-      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>5.214049405130415</v>
+      </c>
       <c r="T8" t="n">
-        <v>5.214049405130415</v>
+        <v>98.7679087029408</v>
       </c>
       <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1623,7 +1602,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1633,31 +1612,31 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1668,12 +1647,12 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1681,15 +1660,10 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1715,43 +1689,45 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>42.837</v>
+        <v>29.8</v>
       </c>
       <c r="L9" t="n">
-        <v>29.8</v>
+        <v>14.6226415634155</v>
       </c>
       <c r="M9" t="n">
-        <v>14.6226415634155</v>
+        <v>-0.448231309652328</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.448231309652328</v>
+        <v>-0.678962171077728</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.678962171077728</v>
+        <v>-1.45044994354248</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
+        <v>-0.26560452580452</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
-      </c>
-      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>13.8956609775178</v>
+      </c>
       <c r="T9" t="n">
-        <v>13.8956609775178</v>
+        <v>98.76885789947001</v>
       </c>
       <c r="U9" t="n">
-        <v>98.76885789947001</v>
+        <v>97.5287500099944</v>
       </c>
       <c r="V9" t="n">
-        <v>97.5287500099944</v>
-      </c>
-      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1764,7 +1740,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1777,24 +1753,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1805,12 +1781,12 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1818,15 +1794,10 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1856,37 +1827,39 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>44.669</v>
+        <v>30.8</v>
       </c>
       <c r="L10" t="n">
-        <v>30.8</v>
+        <v>16.5876770019531</v>
       </c>
       <c r="M10" t="n">
-        <v>16.5876770019531</v>
+        <v>-0.239516973495483</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.239516973495483</v>
+        <v>-0.7477903962135311</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.7477903962135311</v>
+        <v>-1.37938976287842</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
+        <v>-0.184178426861763</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
-      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
         <v>33.88477631155459</v>
       </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1899,7 +1872,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1909,27 +1882,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1940,20 +1913,15 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1982,10 +1950,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
+      <c r="S11" t="n">
         <v>28.27058993220828</v>
       </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1996,31 +1964,30 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,160 +486,165 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -675,47 +680,45 @@
         <v>9328000</v>
       </c>
       <c r="K2" t="n">
+        <v>46.978</v>
+      </c>
+      <c r="L2" t="n">
         <v>27.8</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>8.09523773193359</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-0.690327763557434</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>-0.600906729698181</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -728,7 +731,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -743,30 +746,30 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -774,17 +777,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -794,10 +797,15 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,49 +833,47 @@
         <v>5399000</v>
       </c>
       <c r="K3" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="L3" t="n">
         <v>29.9</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>9.0476188659668</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-0.536168873310089</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>-0.590893149375916</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -880,7 +886,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -895,26 +901,26 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -922,17 +928,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -942,10 +948,15 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -981,47 +992,45 @@
         <v>8292000</v>
       </c>
       <c r="K4" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="L4" t="n">
         <v>33.1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>9.0476188659668</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.530632019042969</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>-0.495982348918915</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1034,7 +1043,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1049,7 +1058,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1059,20 +1068,20 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1080,17 +1089,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1103,7 +1112,12 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1131,47 +1145,45 @@
         <v>11346000</v>
       </c>
       <c r="K5" t="n">
+        <v>43.299</v>
+      </c>
+      <c r="L5" t="n">
         <v>31.2</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>11.7924528121948</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.454036295413971</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>-0.514722347259521</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1184,7 +1196,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1197,24 +1209,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1227,12 +1239,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1246,6 +1258,11 @@
         </is>
       </c>
       <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1279,45 +1296,43 @@
         <v>13026000</v>
       </c>
       <c r="K6" t="n">
+        <v>42.199</v>
+      </c>
+      <c r="L6" t="n">
         <v>27.8</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>12.2641506195068</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-0.251354306936264</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>-0.655317544937134</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1330,7 +1345,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1343,42 +1358,42 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1388,10 +1403,15 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1415,45 +1435,43 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
+        <v>41.616</v>
+      </c>
+      <c r="L7" t="n">
         <v>27.3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>11.7924528121948</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.44617161154747</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>-0.810433626174927</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1466,7 +1484,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1476,39 +1494,39 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1516,10 +1534,15 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1553,43 +1576,41 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
+        <v>42.987</v>
+      </c>
+      <c r="L8" t="n">
         <v>28.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>14.6226415634155</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.457696795463562</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>-0.70594334602356</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1602,7 +1623,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1612,31 +1633,31 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1647,12 +1668,12 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1660,10 +1681,15 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1689,45 +1715,43 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
+        <v>42.837</v>
+      </c>
+      <c r="L9" t="n">
         <v>29.8</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>14.6226415634155</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>-0.448231309652328</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>-0.678962171077728</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1740,7 +1764,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1753,24 +1777,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1781,12 +1805,12 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1794,10 +1818,15 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1827,39 +1856,37 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
+        <v>44.669</v>
+      </c>
+      <c r="L10" t="n">
         <v>30.8</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>16.5876770019531</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>-0.239516973495483</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>-0.7477903962135311</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1872,7 +1899,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1882,27 +1909,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1913,15 +1940,20 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1950,10 +1982,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1964,30 +1996,31 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,145 +506,135 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -692,33 +682,35 @@
         <v>-0.690327763557434</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.600906729698181</v>
+        <v>-1.19008219242096</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>-0.601831138134003</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>24.761905670166</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>10.370490343517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
+        <v>98.6914116257754</v>
       </c>
       <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
-      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -726,12 +718,12 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -741,43 +733,43 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -787,25 +779,15 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -845,35 +827,37 @@
         <v>-0.536168873310089</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.590893149375916</v>
+        <v>-1.20482385158539</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>-0.477475792169571</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>17.619047164917</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>13.81360621482896</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
+        <v>98.7208232501016</v>
       </c>
       <c r="U3" t="n">
-        <v>98.7208232501016</v>
+        <v>96.2465784166378</v>
       </c>
       <c r="V3" t="n">
-        <v>96.2465784166378</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -881,12 +865,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -896,39 +880,39 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -938,25 +922,15 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1004,33 +978,35 @@
         <v>-0.530632019042969</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.495982348918915</v>
+        <v>-1.25143277645111</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>-0.448036134243011</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
+        <v>98.75057375600331</v>
       </c>
       <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
-      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1038,12 +1014,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1053,17 +1029,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1071,25 +1047,25 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1099,7 +1075,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1107,17 +1083,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1157,33 +1123,35 @@
         <v>-0.454036295413971</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.514722347259521</v>
+        <v>-1.32450354099274</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
+        <v>-0.301445573568344</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
-      </c>
-      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>14.40146578074217</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
+        <v>98.7558675337883</v>
       </c>
       <c r="U5" t="n">
-        <v>98.7558675337883</v>
+        <v>96.88100077372481</v>
       </c>
       <c r="V5" t="n">
-        <v>96.88100077372481</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1191,12 +1159,12 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1204,29 +1172,29 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1234,17 +1202,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1253,16 +1221,6 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1308,31 +1266,33 @@
         <v>-0.251354306936264</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.655317544937134</v>
+        <v>-1.44394659996033</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
+        <v>-0.332123339176178</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
-      </c>
-      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>9.152799593248035</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
+        <v>98.7614152226307</v>
       </c>
       <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
-      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1340,12 +1300,12 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1353,30 +1313,26 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1385,33 +1341,27 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1447,31 +1397,33 @@
         <v>-0.44617161154747</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.810433626174927</v>
+        <v>-1.48189222812653</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
+        <v>-0.317483067512512</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
-      </c>
-      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>5.04493288977539</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.04493288977539</v>
+        <v>98.7671898041778</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7671898041778</v>
+        <v>97.5215610615812</v>
       </c>
       <c r="V7" t="n">
-        <v>97.5215610615812</v>
-      </c>
-      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1479,41 +1431,37 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1523,26 +1471,20 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1588,29 +1530,31 @@
         <v>-0.457696795463562</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.70594334602356</v>
+        <v>-1.50513410568237</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
+        <v>-0.260645717382431</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
-      </c>
-      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>5.214049405130415</v>
+      </c>
       <c r="T8" t="n">
-        <v>5.214049405130415</v>
+        <v>98.7679087029408</v>
       </c>
       <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1618,78 +1562,68 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1727,31 +1661,33 @@
         <v>-0.448231309652328</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.678962171077728</v>
+        <v>-1.45044994354248</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
+        <v>-0.26560452580452</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
-      </c>
-      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>13.8956609775178</v>
+      </c>
       <c r="T9" t="n">
-        <v>13.8956609775178</v>
+        <v>98.76885789947001</v>
       </c>
       <c r="U9" t="n">
-        <v>98.76885789947001</v>
+        <v>97.5287500099944</v>
       </c>
       <c r="V9" t="n">
-        <v>97.5287500099944</v>
-      </c>
-      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1759,12 +1695,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1772,61 +1708,51 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1868,25 +1794,27 @@
         <v>-0.239516973495483</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.7477903962135311</v>
+        <v>-1.37938976287842</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
+        <v>-0.184178426861763</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
-      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
         <v>33.88477631155459</v>
       </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1894,66 +1822,56 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1982,10 +1900,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
+      <c r="S11" t="n">
         <v>28.27058993220828</v>
       </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1995,32 +1913,30 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,135 +506,145 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -682,35 +692,33 @@
         <v>-0.690327763557434</v>
       </c>
       <c r="O2" t="n">
+        <v>-0.600906729698181</v>
+      </c>
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -718,12 +726,12 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -733,43 +741,43 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -779,15 +787,25 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -827,37 +845,35 @@
         <v>-0.536168873310089</v>
       </c>
       <c r="O3" t="n">
+        <v>-0.590893149375916</v>
+      </c>
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -865,12 +881,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -880,39 +896,39 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -922,15 +938,25 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -978,35 +1004,33 @@
         <v>-0.530632019042969</v>
       </c>
       <c r="O4" t="n">
+        <v>-0.495982348918915</v>
+      </c>
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1014,12 +1038,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1029,17 +1053,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1047,25 +1071,25 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1075,7 +1099,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1083,7 +1107,17 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1123,35 +1157,33 @@
         <v>-0.454036295413971</v>
       </c>
       <c r="O5" t="n">
+        <v>-0.514722347259521</v>
+      </c>
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1159,12 +1191,12 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1172,29 +1204,29 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1202,17 +1234,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1221,6 +1253,16 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1266,33 +1308,31 @@
         <v>-0.251354306936264</v>
       </c>
       <c r="O6" t="n">
+        <v>-0.655317544937134</v>
+      </c>
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1300,12 +1340,12 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1313,26 +1353,30 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1341,27 +1385,33 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1397,33 +1447,31 @@
         <v>-0.44617161154747</v>
       </c>
       <c r="O7" t="n">
+        <v>-0.810433626174927</v>
+      </c>
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1431,37 +1479,41 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1471,20 +1523,26 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1530,31 +1588,29 @@
         <v>-0.457696795463562</v>
       </c>
       <c r="O8" t="n">
+        <v>-0.70594334602356</v>
+      </c>
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1562,68 +1618,78 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1661,33 +1727,31 @@
         <v>-0.448231309652328</v>
       </c>
       <c r="O9" t="n">
+        <v>-0.678962171077728</v>
+      </c>
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1695,12 +1759,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1708,51 +1772,61 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1794,27 +1868,25 @@
         <v>-0.239516973495483</v>
       </c>
       <c r="O10" t="n">
+        <v>-0.7477903962135311</v>
+      </c>
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1822,56 +1894,66 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1900,10 +1982,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1913,30 +1995,32 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,197 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Pobreza_Poblacion_Porcentual</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Multidimensional_Porcentual</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad_Turistas_Año</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>IPC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho_cat</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad_Gubernamental_cat</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Rendicion_Cuentas_cat</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Estabilidad_Politica_cat</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Calidad_Regulatoria_cat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>IPC_cat</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_cat</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Tasa_Desempleo_cat</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>ratio_turistas_residentes_cat</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Agua_Potable_cat</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Acceso_Saneamiento_cat</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Inseguridad_Alimentaria_cat</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -476,12 +661,151 @@
       <c r="D2" t="n">
         <v>2.09892554805563</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61.7368302860934</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.3302106410428</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9328000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.978</v>
+      </c>
+      <c r="L2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.09523773193359</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.690327763557434</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.600906729698181</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.19008219242096</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.601831138134003</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24.761905670166</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.71791733156895</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10.370490343517</v>
+      </c>
+      <c r="U2" t="n">
+        <v>98.6914116257754</v>
+      </c>
+      <c r="V2" t="n">
+        <v>95.93186989979669</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>9.365711787770401</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -494,12 +818,149 @@
       <c r="D3" t="n">
         <v>2.03468294927084</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>61.6008772488617</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47.5332383158435</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5399000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="L3" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.0476188659668</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.536168873310089</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.590893149375916</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1.20482385158539</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.477475792169571</v>
+      </c>
+      <c r="R3" t="n">
+        <v>17.619047164917</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.50721254822527</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13.81360621482896</v>
+      </c>
+      <c r="U3" t="n">
+        <v>98.7208232501016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>96.2465784166378</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.31164526623252</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,12 +973,151 @@
       <c r="D4" t="n">
         <v>1.99817843887244</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61.5289800193223</v>
+      </c>
+      <c r="H4" t="n">
+        <v>47.4089584400473</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.767</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8292000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.0476188659668</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.530632019042969</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.495982348918915</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.25143277645111</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.448036134243011</v>
+      </c>
+      <c r="R4" t="n">
+        <v>20.9523811340332</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.31152527182627</v>
+      </c>
+      <c r="T4" t="n">
+        <v>29.50660839400387</v>
+      </c>
+      <c r="U4" t="n">
+        <v>98.75057375600331</v>
+      </c>
+      <c r="V4" t="n">
+        <v>96.5629903922749</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>7.996446769427308</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -530,12 +1130,143 @@
       <c r="D5" t="n">
         <v>1.89713831833082</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>61.5446717092144</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49.7118492005103</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11346000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>43.299</v>
+      </c>
+      <c r="L5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11.7924528121948</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.454036295413971</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.514722347259521</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.32450354099274</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.301445573568344</v>
+      </c>
+      <c r="R5" t="n">
+        <v>20.4761905670166</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>14.40146578074217</v>
+      </c>
+      <c r="U5" t="n">
+        <v>98.7558675337883</v>
+      </c>
+      <c r="V5" t="n">
+        <v>96.88100077372481</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10.73597198026754</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -548,12 +1279,139 @@
       <c r="D6" t="n">
         <v>1.75497438173801</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>61.6643683303097</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>7.851</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13026000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>42.199</v>
+      </c>
+      <c r="L6" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.2641506195068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.251354306936264</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.655317544937134</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.44394659996033</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.332123339176178</v>
+      </c>
+      <c r="R6" t="n">
+        <v>21.9047622680664</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>9.152799593248035</v>
+      </c>
+      <c r="U6" t="n">
+        <v>98.7614152226307</v>
+      </c>
+      <c r="V6" t="n">
+        <v>97.2005582635653</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>12.11122038834043</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -566,12 +1424,129 @@
       <c r="D7" t="n">
         <v>1.62495386951696</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>61.8346774314352</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>7.974</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>41.616</v>
+      </c>
+      <c r="L7" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11.7924528121948</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.44617161154747</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.810433626174927</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.48189222812653</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.317483067512512</v>
+      </c>
+      <c r="R7" t="n">
+        <v>31.4285717010498</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>5.04493288977539</v>
+      </c>
+      <c r="U7" t="n">
+        <v>98.7671898041778</v>
+      </c>
+      <c r="V7" t="n">
+        <v>97.5215610615812</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -584,12 +1559,137 @@
       <c r="D8" t="n">
         <v>1.4908053906311</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>62.0672499568481</v>
+      </c>
+      <c r="H8" t="n">
+        <v>52.9199600219727</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.441</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>42.987</v>
+      </c>
+      <c r="L8" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.6226415634155</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.457696795463562</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.70594334602356</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1.50513410568237</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.260645717382431</v>
+      </c>
+      <c r="R8" t="n">
+        <v>34.2857131958008</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>5.214049405130415</v>
+      </c>
+      <c r="U8" t="n">
+        <v>98.7679087029408</v>
+      </c>
+      <c r="V8" t="n">
+        <v>97.5246503198928</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -602,12 +1702,135 @@
       <c r="D9" t="n">
         <v>1.48609697540294</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>62.3202560966817</v>
+      </c>
+      <c r="H9" t="n">
+        <v>54.3136582910509</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.344</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>42.837</v>
+      </c>
+      <c r="L9" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.6226415634155</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.448231309652328</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.678962171077728</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-1.45044994354248</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.26560452580452</v>
+      </c>
+      <c r="R9" t="n">
+        <v>24.5283012390137</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>13.8956609775178</v>
+      </c>
+      <c r="U9" t="n">
+        <v>98.76885789947001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>97.5287500099944</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.83938</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -620,12 +1843,117 @@
       <c r="D10" t="n">
         <v>1.68834126904494</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>62.5951954232918</v>
+      </c>
+      <c r="H10" t="n">
+        <v>55.6923702917355</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.753</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>44.669</v>
+      </c>
+      <c r="L10" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16.5876770019531</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.239516973495483</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.7477903962135311</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1.37938976287842</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.184178426861763</v>
+      </c>
+      <c r="R10" t="n">
+        <v>26.8867931365967</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>33.88477631155459</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -638,12 +1966,61 @@
       <c r="D11" t="n">
         <v>1.73324205302065</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>62.8890495466693</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>28.27058993220828</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -506,24 +506,24 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Control_Corrupcion</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Homicidios</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
@@ -551,32 +551,32 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>Control_Corrupcion_cat</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
@@ -682,16 +682,16 @@
         <v>-0.690327763557434</v>
       </c>
       <c r="O2" t="n">
+        <v>-0.600906729698181</v>
+      </c>
+      <c r="P2" t="n">
         <v>-1.19008219242096</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.601831138134003</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>24.761905670166</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.71791733156895</v>
       </c>
       <c r="S2" t="n">
         <v>10.370490343517</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -827,16 +827,16 @@
         <v>-0.536168873310089</v>
       </c>
       <c r="O3" t="n">
+        <v>-0.590893149375916</v>
+      </c>
+      <c r="P3" t="n">
         <v>-1.20482385158539</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.477475792169571</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>17.619047164917</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.50721254822527</v>
       </c>
       <c r="S3" t="n">
         <v>13.81360621482896</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -978,16 +978,16 @@
         <v>-0.530632019042969</v>
       </c>
       <c r="O4" t="n">
+        <v>-0.495982348918915</v>
+      </c>
+      <c r="P4" t="n">
         <v>-1.25143277645111</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.448036134243011</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.31152527182627</v>
       </c>
       <c r="S4" t="n">
         <v>29.50660839400387</v>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1123,15 +1123,17 @@
         <v>-0.454036295413971</v>
       </c>
       <c r="O5" t="n">
+        <v>-0.514722347259521</v>
+      </c>
+      <c r="P5" t="n">
         <v>-1.32450354099274</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-0.301445573568344</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
         <v>14.40146578074217</v>
       </c>
@@ -1159,7 +1161,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1172,7 +1174,11 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1266,15 +1272,17 @@
         <v>-0.251354306936264</v>
       </c>
       <c r="O6" t="n">
+        <v>-0.655317544937134</v>
+      </c>
+      <c r="P6" t="n">
         <v>-1.44394659996033</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.332123339176178</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
         <v>9.152799593248035</v>
       </c>
@@ -1300,7 +1308,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1313,7 +1321,11 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1397,15 +1409,17 @@
         <v>-0.44617161154747</v>
       </c>
       <c r="O7" t="n">
+        <v>-0.810433626174927</v>
+      </c>
+      <c r="P7" t="n">
         <v>-1.48189222812653</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.317483067512512</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
         <v>5.04493288977539</v>
       </c>
@@ -1431,7 +1445,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1441,10 +1455,14 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1530,15 +1548,17 @@
         <v>-0.457696795463562</v>
       </c>
       <c r="O8" t="n">
+        <v>-0.70594334602356</v>
+      </c>
+      <c r="P8" t="n">
         <v>-1.50513410568237</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.260645717382431</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
         <v>5.214049405130415</v>
       </c>
@@ -1562,7 +1582,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1572,10 +1592,14 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1661,15 +1685,17 @@
         <v>-0.448231309652328</v>
       </c>
       <c r="O9" t="n">
+        <v>-0.678962171077728</v>
+      </c>
+      <c r="P9" t="n">
         <v>-1.45044994354248</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.26560452580452</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
         <v>13.8956609775178</v>
       </c>
@@ -1695,7 +1721,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1708,7 +1734,11 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1794,15 +1824,17 @@
         <v>-0.239516973495483</v>
       </c>
       <c r="O10" t="n">
+        <v>-0.7477903962135311</v>
+      </c>
+      <c r="P10" t="n">
         <v>-1.37938976287842</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.184178426861763</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
         <v>33.88477631155459</v>
       </c>
@@ -1822,7 +1854,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1832,10 +1864,14 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AD10" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,115 +526,125 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Homicidios</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Homicidios_cat</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -694,23 +704,21 @@
         <v>24.761905670166</v>
       </c>
       <c r="S2" t="n">
+        <v>1.71791733156895</v>
+      </c>
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>98.6914116257754</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -723,7 +731,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -738,38 +746,38 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -779,15 +787,25 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -839,25 +857,23 @@
         <v>17.619047164917</v>
       </c>
       <c r="S3" t="n">
+        <v>1.50721254822527</v>
+      </c>
+      <c r="T3" t="n">
         <v>13.81360621482896</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>98.7208232501016</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>96.2465784166378</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -870,7 +886,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -885,34 +901,34 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -922,15 +938,25 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -990,23 +1016,21 @@
         <v>20.9523811340332</v>
       </c>
       <c r="S4" t="n">
+        <v>1.31152527182627</v>
+      </c>
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>98.75057375600331</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1019,7 +1043,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1034,12 +1058,12 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1047,25 +1071,25 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1075,7 +1099,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1083,7 +1107,17 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1134,26 +1168,22 @@
       <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074217</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>98.7558675337883</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>96.88100077372481</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1166,7 +1196,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1181,26 +1211,22 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1208,17 +1234,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1227,6 +1253,16 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1283,24 +1319,20 @@
       <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>98.7614152226307</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1313,7 +1345,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1328,23 +1360,23 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1353,27 +1385,33 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1420,24 +1458,20 @@
       <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.04493288977539</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>98.7671898041778</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1450,7 +1484,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1460,26 +1494,26 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1489,20 +1523,26 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1559,22 +1599,18 @@
       <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130415</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>98.7679087029408</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>97.5246503198928</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1587,7 +1623,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1597,57 +1633,63 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1696,24 +1738,20 @@
       <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.8956609775178</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>98.76885789947001</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1726,7 +1764,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1741,48 +1779,54 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1835,18 +1879,14 @@
       <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155459</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1859,7 +1899,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1869,45 +1909,51 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1936,10 +1982,10 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220828</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1949,30 +1995,32 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,107 +546,97 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
           <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -715,10 +705,14 @@
       <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="W2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -731,7 +725,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -746,48 +740,48 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -797,15 +791,9 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -869,11 +857,13 @@
         <v>96.2465784166378</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -886,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -901,44 +891,44 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -948,17 +938,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
     </row>
@@ -1027,10 +1007,14 @@
       <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="W4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1043,7 +1027,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1058,7 +1042,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1068,38 +1052,38 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1112,12 +1096,6 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1179,11 +1157,13 @@
         <v>96.88100077372481</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1196,7 +1176,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1209,42 +1189,42 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF5" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1255,16 +1235,6 @@
       <c r="AO5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -1329,10 +1299,14 @@
       <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="W6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1345,7 +1319,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1358,42 +1332,42 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1403,15 +1377,9 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1468,10 +1436,12 @@
       <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="W7" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1484,7 +1454,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1494,39 +1464,39 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1534,17 +1504,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1570,11 @@
         <v>97.5246503198928</v>
       </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1623,7 +1587,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1633,31 +1597,31 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1668,12 +1632,12 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1681,15 +1645,9 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1748,10 +1706,12 @@
       <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="W9" t="n">
-        <v>3.83938</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1764,7 +1724,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1777,24 +1737,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1805,12 +1765,12 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1818,17 +1778,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1836,11 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1899,7 +1853,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1909,27 +1863,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1940,20 +1894,14 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1996,31 +1944,29 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,97 +546,107 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>Poblacion_Urbana</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion_Urbana_cat</t>
         </is>
       </c>
     </row>
@@ -705,14 +715,10 @@
       <c r="V2" t="n">
         <v>95.93186989979669</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -725,7 +731,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -740,30 +746,30 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -771,17 +777,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -791,9 +797,15 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -857,13 +869,11 @@
         <v>96.2465784166378</v>
       </c>
       <c r="W3" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -876,7 +886,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -891,26 +901,26 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -918,17 +928,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -938,7 +948,17 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -1007,14 +1027,10 @@
       <c r="V4" t="n">
         <v>96.5629903922749</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1027,7 +1043,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1042,7 +1058,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1052,20 +1068,20 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1073,17 +1089,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1096,6 +1112,12 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1157,13 +1179,11 @@
         <v>96.88100077372481</v>
       </c>
       <c r="W5" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1176,7 +1196,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1189,24 +1209,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1219,12 +1239,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1235,6 +1255,16 @@
       <c r="AO5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -1299,14 +1329,10 @@
       <c r="V6" t="n">
         <v>97.2005582635653</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1319,7 +1345,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1332,42 +1358,42 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -1377,9 +1403,15 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1436,12 +1468,10 @@
       <c r="V7" t="n">
         <v>97.5215610615812</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="W7" t="n">
+        <v>0.8999200000000001</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1454,7 +1484,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1464,39 +1494,39 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1504,7 +1534,17 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -1570,11 +1610,7 @@
         <v>97.5246503198928</v>
       </c>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1587,7 +1623,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1597,31 +1633,31 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1632,12 +1668,12 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1645,9 +1681,15 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1706,12 +1748,10 @@
       <c r="V9" t="n">
         <v>97.5287500099944</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="W9" t="n">
+        <v>3.83938</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1724,7 +1764,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1737,24 +1777,24 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1765,12 +1805,12 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1778,7 +1818,17 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
         </is>
       </c>
     </row>
@@ -1836,11 +1886,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1853,7 +1899,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1863,27 +1909,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1894,14 +1940,20 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1944,29 +1996,31 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,135 +516,125 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -698,27 +688,29 @@
         <v>-1.19008219242096</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>24.761905670166</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>1.71791733156895</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>10.370490343517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
+        <v>97.9255148711552</v>
       </c>
       <c r="U2" t="n">
-        <v>98.6914116257754</v>
-      </c>
-      <c r="V2" t="n">
-        <v>95.93186989979669</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+        <v>95.1514018679127</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>9.365711787770401</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -726,12 +718,12 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -741,43 +733,43 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -787,25 +779,15 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -851,29 +833,31 @@
         <v>-1.20482385158539</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>17.619047164917</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>1.50721254822527</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>13.81360621482898</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482896</v>
+        <v>97.8534422131452</v>
       </c>
       <c r="U3" t="n">
-        <v>98.7208232501016</v>
+        <v>95.3608044893643</v>
       </c>
       <c r="V3" t="n">
-        <v>96.2465784166378</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -881,12 +865,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -896,39 +880,39 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -938,25 +922,15 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1010,27 +984,29 @@
         <v>-1.25143277645111</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>20.9523811340332</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>1.31152527182627</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>29.50660839400387</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
+        <v>97.78186116169481</v>
       </c>
       <c r="U4" t="n">
-        <v>98.75057375600331</v>
-      </c>
-      <c r="V4" t="n">
-        <v>96.5629903922749</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+        <v>95.5716159808707</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>7.996446769427308</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1038,12 +1014,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1053,17 +1029,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1071,25 +1047,25 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1099,7 +1075,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1107,17 +1083,7 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1163,27 +1129,29 @@
         <v>-1.32450354099274</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
-      </c>
-      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>14.40146578074216</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074217</v>
+        <v>97.710814412432</v>
       </c>
       <c r="U5" t="n">
-        <v>98.7558675337883</v>
+        <v>95.78382285197981</v>
       </c>
       <c r="V5" t="n">
-        <v>96.88100077372481</v>
+        <v>0.8999200000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8999200000000001</v>
-      </c>
-      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1191,12 +1159,12 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1204,29 +1172,29 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1234,17 +1202,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1253,16 +1221,6 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1314,25 +1272,27 @@
         <v>-1.44394659996033</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
-      </c>
-      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>9.152799593248035</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
+        <v>97.6403544846485</v>
       </c>
       <c r="U6" t="n">
-        <v>98.7614152226307</v>
-      </c>
-      <c r="V6" t="n">
-        <v>97.2005582635653</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+        <v>95.9974521361916</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>12.11122038834043</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1340,12 +1300,12 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1353,30 +1313,26 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1385,33 +1341,27 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1453,25 +1403,27 @@
         <v>-1.48189222812653</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
-      </c>
-      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>5.044932889775388</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.04493288977539</v>
+        <v>97.57053292014329</v>
       </c>
       <c r="U7" t="n">
-        <v>98.7671898041778</v>
+        <v>96.21249765428</v>
       </c>
       <c r="V7" t="n">
-        <v>97.5215610615812</v>
-      </c>
-      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1479,41 +1431,37 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1523,26 +1471,20 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1594,23 +1536,25 @@
         <v>-1.50513410568237</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
-      </c>
-      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>5.214049405130425</v>
+      </c>
       <c r="T8" t="n">
-        <v>5.214049405130415</v>
+        <v>97.5013675608953</v>
       </c>
       <c r="U8" t="n">
-        <v>98.7679087029408</v>
-      </c>
-      <c r="V8" t="n">
-        <v>97.5246503198928</v>
-      </c>
+        <v>96.4288914179465</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1618,78 +1562,68 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1733,25 +1667,27 @@
         <v>-1.45044994354248</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
-      </c>
-      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>13.89566097751779</v>
+      </c>
       <c r="T9" t="n">
-        <v>13.8956609775178</v>
+        <v>97.4328917169926</v>
       </c>
       <c r="U9" t="n">
-        <v>98.76885789947001</v>
+        <v>96.6466119170931</v>
       </c>
       <c r="V9" t="n">
-        <v>97.5287500099944</v>
-      </c>
-      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1759,12 +1695,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1772,61 +1708,51 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1874,19 +1800,25 @@
         <v>-1.37938976287842</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
-      </c>
-      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>33.88477631155461</v>
+      </c>
       <c r="T10" t="n">
-        <v>33.88477631155459</v>
-      </c>
-      <c r="U10" t="inlineStr"/>
+        <v>97.3651944677444</v>
+      </c>
+      <c r="U10" t="n">
+        <v>96.86574836844029</v>
+      </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1894,66 +1826,64 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1982,11 +1912,15 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>28.27058993220827</v>
+      </c>
       <c r="T11" t="n">
-        <v>28.27058993220828</v>
-      </c>
-      <c r="U11" t="inlineStr"/>
+        <v>97.29824262801939</v>
+      </c>
+      <c r="U11" t="n">
+        <v>97.086129419198</v>
+      </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
@@ -1995,32 +1929,38 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,125 +516,135 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Estado_Derecho</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Estado_Derecho_cat</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -688,29 +698,27 @@
         <v>-1.19008219242096</v>
       </c>
       <c r="Q2" t="n">
+        <v>-0.601831138134003</v>
+      </c>
+      <c r="R2" t="n">
         <v>24.761905670166</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.71791733156895</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>10.370490343517</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>97.9255148711552</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>95.1514018679127</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>9.365711787770401</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -718,12 +726,12 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -733,43 +741,43 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -779,15 +787,25 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -833,31 +851,29 @@
         <v>-1.20482385158539</v>
       </c>
       <c r="Q3" t="n">
+        <v>-0.477475792169571</v>
+      </c>
+      <c r="R3" t="n">
         <v>17.619047164917</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.50721254822527</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>13.81360621482898</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>97.8534422131452</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>95.3608044893643</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>5.31164526623252</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -865,12 +881,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -880,39 +896,39 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -922,15 +938,25 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -984,29 +1010,27 @@
         <v>-1.25143277645111</v>
       </c>
       <c r="Q4" t="n">
+        <v>-0.448036134243011</v>
+      </c>
+      <c r="R4" t="n">
         <v>20.9523811340332</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.31152527182627</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>29.50660839400387</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>97.78186116169481</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>95.5716159808707</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>7.996446769427308</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1014,12 +1038,12 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1029,17 +1053,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MUY ALTO ⚠</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1047,25 +1071,25 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1075,7 +1099,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1083,7 +1107,17 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1129,29 +1163,27 @@
         <v>-1.32450354099274</v>
       </c>
       <c r="Q5" t="n">
+        <v>-0.301445573568344</v>
+      </c>
+      <c r="R5" t="n">
         <v>20.4761905670166</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>14.40146578074216</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>97.710814412432</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>95.78382285197981</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>10.73597198026754</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1159,12 +1191,12 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1172,29 +1204,29 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
@@ -1202,17 +1234,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1221,6 +1253,16 @@
         </is>
       </c>
       <c r="AO5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1272,27 +1314,25 @@
         <v>-1.44394659996033</v>
       </c>
       <c r="Q6" t="n">
+        <v>-0.332123339176178</v>
+      </c>
+      <c r="R6" t="n">
         <v>21.9047622680664</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>9.152799593248035</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>97.6403544846485</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>95.9974521361916</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>12.11122038834043</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1300,12 +1340,12 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1313,26 +1353,30 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr"/>
@@ -1341,27 +1385,33 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1403,27 +1453,25 @@
         <v>-1.48189222812653</v>
       </c>
       <c r="Q7" t="n">
+        <v>-0.317483067512512</v>
+      </c>
+      <c r="R7" t="n">
         <v>31.4285717010498</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>5.044932889775388</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>97.57053292014329</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>96.21249765428</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.8999200000000001</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1431,37 +1479,41 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1471,20 +1523,26 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1536,25 +1594,23 @@
         <v>-1.50513410568237</v>
       </c>
       <c r="Q8" t="n">
+        <v>-0.260645717382431</v>
+      </c>
+      <c r="R8" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>5.214049405130425</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>97.5013675608953</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>96.4288914179465</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1562,68 +1618,78 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1667,27 +1733,25 @@
         <v>-1.45044994354248</v>
       </c>
       <c r="Q9" t="n">
+        <v>-0.26560452580452</v>
+      </c>
+      <c r="R9" t="n">
         <v>24.5283012390137</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>13.89566097751779</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>97.4328917169926</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>96.6466119170931</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>3.83938</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1695,12 +1759,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1708,51 +1772,61 @@
           <t>MUY ALTO ⚠</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
@@ -1800,25 +1874,23 @@
         <v>-1.37938976287842</v>
       </c>
       <c r="Q10" t="n">
+        <v>-0.184178426861763</v>
+      </c>
+      <c r="R10" t="n">
         <v>26.8867931365967</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>33.88477631155461</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>97.3651944677444</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>96.86574836844029</v>
       </c>
-      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1826,64 +1898,74 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr"/>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>MUY ALTO ⚠</t>
+        </is>
+      </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1912,16 +1994,16 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.27058993220827</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>97.29824262801939</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>97.086129419198</v>
       </c>
-      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
@@ -1929,38 +2011,40 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -655,69 +655,61 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>99597342</v>
+        <v>52020962</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>2.09892554805563</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.9</v>
-      </c>
+        <v>3.26181042317192</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>61.7368302860934</v>
+        <v>52.525953864521</v>
       </c>
       <c r="H2" t="n">
-        <v>47.3302106410428</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13.052</v>
-      </c>
+        <v>5.27380990982056</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>9328000</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.978</v>
-      </c>
+        <v>1137000</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>27.8</v>
+        <v>48.8</v>
       </c>
       <c r="M2" t="n">
-        <v>8.09523773193359</v>
+        <v>30.9523811340332</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.690327763557434</v>
+        <v>-0.653441548347473</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.600906729698181</v>
+        <v>-0.709870934486389</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.19008219242096</v>
+        <v>-0.222135826945305</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.601831138134003</v>
+        <v>-0.395599663257599</v>
       </c>
       <c r="R2" t="n">
-        <v>24.761905670166</v>
+        <v>36.6666679382324</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71791733156895</v>
+        <v>7.20094334280093</v>
       </c>
       <c r="T2" t="n">
-        <v>10.370490343517</v>
+        <v>5.588169529592981</v>
       </c>
       <c r="U2" t="n">
-        <v>97.9255148711552</v>
+        <v>50.6761681803936</v>
       </c>
       <c r="V2" t="n">
-        <v>95.1514018679127</v>
+        <v>23.8834363913571</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>9.365711787770401</v>
+        <v>2.185657389419288</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -736,22 +728,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -764,27 +756,19 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -792,17 +776,17 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -812,67 +796,61 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>101644589</v>
+        <v>53824013</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>2.03468294927084</v>
+        <v>3.40729531415315</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>61.6008772488617</v>
-      </c>
-      <c r="H3" t="n">
-        <v>47.5332383158435</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.45</v>
-      </c>
+        <v>52.8248609036268</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>5399000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>46.63</v>
-      </c>
+        <v>1284000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>29.9</v>
+        <v>55</v>
       </c>
       <c r="M3" t="n">
-        <v>9.0476188659668</v>
+        <v>28.5714282989502</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.536168873310089</v>
+        <v>-0.606901288032532</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.590893149375916</v>
+        <v>-0.531419515609741</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.20482385158539</v>
+        <v>-0.223375126719475</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.477475792169571</v>
+        <v>-0.396327495574951</v>
       </c>
       <c r="R3" t="n">
-        <v>17.619047164917</v>
+        <v>34.2857131958008</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50721254822527</v>
+        <v>6.38934150079073</v>
       </c>
       <c r="T3" t="n">
-        <v>13.81360621482898</v>
+        <v>5.174766293014932</v>
       </c>
       <c r="U3" t="n">
-        <v>97.8534422131452</v>
+        <v>52.2258564710625</v>
       </c>
       <c r="V3" t="n">
-        <v>95.3608044893643</v>
+        <v>25.3153858621226</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8999200000000001</v>
+        <v>47.26693</v>
       </c>
       <c r="X3" t="n">
-        <v>5.31164526623252</v>
+        <v>2.385552337021025</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -891,22 +869,22 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -923,19 +901,11 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -943,22 +913,22 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
     </row>
@@ -967,69 +937,59 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>103696057</v>
+        <v>55652890</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1.99817843887244</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
+        <v>3.3414302210835</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>61.5289800193223</v>
-      </c>
-      <c r="H4" t="n">
-        <v>47.4089584400473</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.767</v>
-      </c>
+        <v>53.0736238495431</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>8292000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44.95</v>
-      </c>
+        <v>1327000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>33.1</v>
+        <v>56.6</v>
       </c>
       <c r="M4" t="n">
-        <v>9.0476188659668</v>
+        <v>26.1904754638672</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.530632019042969</v>
+        <v>-0.682187914848328</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.495982348918915</v>
+        <v>-0.486995428800583</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.25143277645111</v>
+        <v>-0.278485029935837</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.448036134243011</v>
+        <v>-0.470542252063751</v>
       </c>
       <c r="R4" t="n">
-        <v>20.9523811340332</v>
+        <v>29.5238094329834</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31152527182627</v>
+        <v>5.65469286500665</v>
       </c>
       <c r="T4" t="n">
-        <v>29.50660839400387</v>
+        <v>5.318716052289308</v>
       </c>
       <c r="U4" t="n">
-        <v>97.78186116169481</v>
+        <v>53.7768153446022</v>
       </c>
       <c r="V4" t="n">
-        <v>95.5716159808707</v>
+        <v>26.7585271322434</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>7.996446769427308</v>
+        <v>2.384422444189331</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -1048,55 +1008,43 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1104,12 +1052,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1124,65 +1072,67 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>105682094</v>
+        <v>57437145</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>1.89713831833082</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>3.15572113764533</v>
+      </c>
+      <c r="E5" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59.2</v>
+      </c>
       <c r="G5" t="n">
-        <v>61.5446717092144</v>
+        <v>53.2535161109898</v>
       </c>
       <c r="H5" t="n">
-        <v>49.7118492005103</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.855</v>
-      </c>
+        <v>4.05194997787476</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>11346000</v>
-      </c>
-      <c r="K5" t="n">
-        <v>43.299</v>
-      </c>
+        <v>1506000</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>31.2</v>
+        <v>56.1</v>
       </c>
       <c r="M5" t="n">
-        <v>11.7924528121948</v>
+        <v>25.4716987609863</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.454036295413971</v>
+        <v>-0.779476463794708</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.514722347259521</v>
+        <v>-0.475951611995697</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.32450354099274</v>
+        <v>-0.380523890256882</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.301445573568344</v>
+        <v>-0.573051035404205</v>
       </c>
       <c r="R5" t="n">
-        <v>20.4761905670166</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>29.0476188659668</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.75998593558216</v>
+      </c>
       <c r="T5" t="n">
-        <v>14.40146578074216</v>
+        <v>3.494458488561813</v>
       </c>
       <c r="U5" t="n">
-        <v>97.710814412432</v>
+        <v>55.3281861083023</v>
       </c>
       <c r="V5" t="n">
-        <v>95.78382285197981</v>
+        <v>28.2133927251419</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8999200000000001</v>
+        <v>43.0093</v>
       </c>
       <c r="X5" t="n">
-        <v>10.73597198026754</v>
+        <v>2.62199661908683</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
@@ -1201,23 +1151,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1225,23 +1179,23 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1249,12 +1203,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1264,7 +1218,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
     </row>
@@ -1273,65 +1227,59 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>107553158</v>
+        <v>59174891</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1.75497438173801</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.8</v>
-      </c>
+        <v>2.98060939385811</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>61.6643683303097</v>
+        <v>53.4064794475076</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>7.851</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>13026000</v>
-      </c>
-      <c r="K6" t="n">
-        <v>42.199</v>
-      </c>
+        <v>1527000</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>27.8</v>
+        <v>56.3</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2641506195068</v>
+        <v>30.6603775024414</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.251354306936264</v>
+        <v>-0.854386746883392</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.655317544937134</v>
+        <v>-0.420570701360703</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.44394659996033</v>
+        <v>-0.521158754825592</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.332123339176178</v>
+        <v>-0.567784249782562</v>
       </c>
       <c r="R6" t="n">
-        <v>21.9047622680664</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>28.0952377319336</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.59485426006108</v>
+      </c>
       <c r="T6" t="n">
-        <v>9.152799593248035</v>
+        <v>3.464280579990205</v>
       </c>
       <c r="U6" t="n">
-        <v>97.6403544846485</v>
+        <v>56.8787467857379</v>
       </c>
       <c r="V6" t="n">
-        <v>95.9974521361916</v>
+        <v>29.6802357492442</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>12.11122038834043</v>
+        <v>2.580486375547358</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -1350,23 +1298,27 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1374,23 +1326,15 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1398,17 +1342,17 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr"/>
@@ -1418,58 +1362,60 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>109315124</v>
+        <v>60972798</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>1.62495386951696</v>
+        <v>2.99305168844906</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>61.8346774314352</v>
+        <v>53.6083841322846</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>7.974</v>
+        <v>1.792</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>41.616</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>27.3</v>
+        <v>57.6</v>
       </c>
       <c r="M7" t="n">
-        <v>11.7924528121948</v>
+        <v>27.3584899902344</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.44617161154747</v>
+        <v>-0.73927241563797</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.810433626174927</v>
+        <v>-0.405753612518311</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.48189222812653</v>
+        <v>-0.735241413116455</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.317483067512512</v>
+        <v>-0.615206003189087</v>
       </c>
       <c r="R7" t="n">
-        <v>31.4285717010498</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>26.1904754638672</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.74921291744897</v>
+      </c>
       <c r="T7" t="n">
-        <v>5.044932889775388</v>
+        <v>3.290290627983255</v>
       </c>
       <c r="U7" t="n">
-        <v>97.57053292014329</v>
+        <v>58.4288709914851</v>
       </c>
       <c r="V7" t="n">
-        <v>96.21249765428</v>
+        <v>31.1602899873696</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8999200000000001</v>
+        <v>40.88048</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
@@ -1489,12 +1435,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1502,10 +1448,14 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1517,34 +1467,34 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
     </row>
@@ -1553,61 +1503,51 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>110957008</v>
+        <v>62830412</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1.4908053906311</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
+        <v>3.00113934816488</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>62.0672499568481</v>
-      </c>
-      <c r="H8" t="n">
-        <v>52.9199600219727</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.441</v>
-      </c>
+        <v>53.839348530772</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>42.987</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>28.5</v>
+        <v>58.7</v>
       </c>
       <c r="M8" t="n">
-        <v>14.6226415634155</v>
+        <v>34.4339637756348</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.457696795463562</v>
+        <v>-0.648341059684753</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.70594334602356</v>
+        <v>-0.39461013674736</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.50513410568237</v>
+        <v>-0.7145538926124571</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.260645717382431</v>
+        <v>-0.551462709903717</v>
       </c>
       <c r="R8" t="n">
-        <v>34.2857131958008</v>
+        <v>29.0476188659668</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>5.214049405130425</v>
+        <v>3.690919588021988</v>
       </c>
       <c r="U8" t="n">
-        <v>97.5013675608953</v>
+        <v>59.9769893426504</v>
       </c>
       <c r="V8" t="n">
-        <v>96.4288914179465</v>
+        <v>32.6535108479798</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
@@ -1628,12 +1568,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1644,7 +1584,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1652,41 +1592,29 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr"/>
@@ -1696,60 +1624,56 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>112618250</v>
+        <v>64711821</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1.48609697540294</v>
+        <v>2.95046658393064</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>62.3202560966817</v>
+        <v>54.0487270478758</v>
       </c>
       <c r="H9" t="n">
-        <v>54.3136582910509</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.344</v>
-      </c>
+        <v>6.54216003417969</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>42.837</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>29.8</v>
+        <v>58.2</v>
       </c>
       <c r="M9" t="n">
-        <v>14.6226415634155</v>
+        <v>37.2641525268555</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.448231309652328</v>
+        <v>-0.460365831851959</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.678962171077728</v>
+        <v>-0.354882270097733</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.45044994354248</v>
+        <v>-0.65319699048996</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.26560452580452</v>
+        <v>-0.462281912565231</v>
       </c>
       <c r="R9" t="n">
-        <v>24.5283012390137</v>
+        <v>30.1886787414551</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>13.89566097751779</v>
+        <v>4.350272042691012</v>
       </c>
       <c r="U9" t="n">
-        <v>97.4328917169926</v>
+        <v>61.5231007781577</v>
       </c>
       <c r="V9" t="n">
-        <v>96.6466119170931</v>
+        <v>34.1608687863697</v>
       </c>
       <c r="W9" t="n">
-        <v>3.83938</v>
+        <v>70.08584999999999</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
@@ -1769,23 +1693,23 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1797,38 +1721,34 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
     </row>
@@ -1837,57 +1757,51 @@
         <v>2023</v>
       </c>
       <c r="B10" t="n">
-        <v>114535772</v>
+        <v>66617606</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1.68834126904494</v>
+        <v>2.90250073555304</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>62.5951954232918</v>
-      </c>
-      <c r="H10" t="n">
-        <v>55.6923702917355</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.753</v>
-      </c>
+        <v>54.2329053806519</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>44.669</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>30.8</v>
+        <v>58</v>
       </c>
       <c r="M10" t="n">
-        <v>16.5876770019531</v>
+        <v>44.0758285522461</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.239516973495483</v>
+        <v>-0.455080926418304</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.7477903962135311</v>
+        <v>-0.319897323846817</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.37938976287842</v>
+        <v>-0.533726751804352</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.184178426861763</v>
+        <v>-0.373498290777206</v>
       </c>
       <c r="R10" t="n">
-        <v>26.8867931365967</v>
+        <v>30.1886787414551</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>33.88477631155461</v>
+        <v>3.799232913849163</v>
       </c>
       <c r="U10" t="n">
-        <v>97.3651944677444</v>
+        <v>63.0660884066509</v>
       </c>
       <c r="V10" t="n">
-        <v>96.86574836844029</v>
+        <v>35.6824982712263</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
@@ -1908,12 +1822,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>MUY ALTO ⚠</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1924,40 +1838,32 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -1972,16 +1878,16 @@
         <v>2024</v>
       </c>
       <c r="B11" t="n">
-        <v>116538258</v>
+        <v>68560157</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1.73324205302065</v>
+        <v>2.87426672866542</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>62.8890495466693</v>
+        <v>54.4188908435551</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -1996,13 +1902,13 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>28.27058993220827</v>
+        <v>3.056946763123725</v>
       </c>
       <c r="U11" t="n">
-        <v>97.29824262801939</v>
+        <v>64.6059619473789</v>
       </c>
       <c r="V11" t="n">
-        <v>97.086129419198</v>
+        <v>37.2193614570345</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
@@ -2015,19 +1921,19 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr"/>
@@ -2035,12 +1941,12 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,205 +446,195 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual</t>
+          <t>Crecimiento_Poblacional</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional</t>
+          <t>Pobreza_Poblacion_Porcentual</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual</t>
+          <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimensional_Porcentual</t>
+          <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral</t>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios</t>
+          <t>Tasa_Desempleo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo</t>
+          <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad_Turistas_Año</t>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Participacion_Fuerza_Laboral</t>
+          <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Inseguridad_Alimentaria</t>
+          <t>Estabilidad_Politica</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica</t>
+          <t>Efectividad_Gubernamental</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Control_Corrupcion</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -657,60 +647,64 @@
       <c r="B2" t="n">
         <v>52020962</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>3.26181042317192</v>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>52.525953864521</v>
+      </c>
       <c r="G2" t="n">
-        <v>52.525953864521</v>
-      </c>
-      <c r="H2" t="n">
         <v>5.27380990982056</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
         <v>1137000</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>48.8</v>
+      </c>
       <c r="L2" t="n">
-        <v>48.8</v>
+        <v>30.9523811340332</v>
       </c>
       <c r="M2" t="n">
-        <v>30.9523811340332</v>
+        <v>-0.653441548347473</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.653441548347473</v>
+        <v>-0.709870934486389</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.709870934486389</v>
+        <v>-0.222135826945305</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.222135826945305</v>
+        <v>-0.395599663257599</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.395599663257599</v>
+        <v>36.6666679382324</v>
       </c>
       <c r="R2" t="n">
-        <v>36.6666679382324</v>
+        <v>7.20094334280093</v>
       </c>
       <c r="S2" t="n">
-        <v>7.20094334280093</v>
+        <v>5.588169529592981</v>
       </c>
       <c r="T2" t="n">
-        <v>5.588169529592981</v>
+        <v>50.6761681803936</v>
       </c>
       <c r="U2" t="n">
-        <v>50.6761681803936</v>
-      </c>
-      <c r="V2" t="n">
         <v>23.8834363913571</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>2.185657389419288</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -738,37 +732,41 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -776,20 +774,10 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,60 +786,64 @@
       <c r="B3" t="n">
         <v>53824013</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>3.40729531415315</v>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>52.8248609036268</v>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="I3" t="n">
         <v>1284000</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>55</v>
+      </c>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>28.5714282989502</v>
       </c>
       <c r="M3" t="n">
-        <v>28.5714282989502</v>
+        <v>-0.606901288032532</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.606901288032532</v>
+        <v>-0.531419515609741</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.531419515609741</v>
+        <v>-0.223375126719475</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.223375126719475</v>
+        <v>-0.396327495574951</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.396327495574951</v>
+        <v>34.2857131958008</v>
       </c>
       <c r="R3" t="n">
-        <v>34.2857131958008</v>
+        <v>6.38934150079073</v>
       </c>
       <c r="S3" t="n">
-        <v>6.38934150079073</v>
+        <v>5.174766293014932</v>
       </c>
       <c r="T3" t="n">
-        <v>5.174766293014932</v>
+        <v>52.2258564710625</v>
       </c>
       <c r="U3" t="n">
-        <v>52.2258564710625</v>
+        <v>25.3153858621226</v>
       </c>
       <c r="V3" t="n">
-        <v>25.3153858621226</v>
+        <v>47.26693</v>
       </c>
       <c r="W3" t="n">
-        <v>47.26693</v>
-      </c>
-      <c r="X3" t="n">
         <v>2.385552337021025</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -879,33 +871,37 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -913,20 +909,10 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -939,58 +925,62 @@
       <c r="B4" t="n">
         <v>55652890</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>3.3414302210835</v>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>53.0736238495431</v>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="I4" t="n">
         <v>1327000</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>56.6</v>
+      </c>
       <c r="L4" t="n">
-        <v>56.6</v>
+        <v>26.1904754638672</v>
       </c>
       <c r="M4" t="n">
-        <v>26.1904754638672</v>
+        <v>-0.682187914848328</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.682187914848328</v>
+        <v>-0.486995428800583</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.486995428800583</v>
+        <v>-0.278485029935837</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.278485029935837</v>
+        <v>-0.470542252063751</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.470542252063751</v>
+        <v>29.5238094329834</v>
       </c>
       <c r="R4" t="n">
-        <v>29.5238094329834</v>
+        <v>5.65469286500665</v>
       </c>
       <c r="S4" t="n">
-        <v>5.65469286500665</v>
+        <v>5.318716052289308</v>
       </c>
       <c r="T4" t="n">
-        <v>5.318716052289308</v>
+        <v>53.7768153446022</v>
       </c>
       <c r="U4" t="n">
-        <v>53.7768153446022</v>
-      </c>
-      <c r="V4" t="n">
         <v>26.7585271322434</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>2.384422444189331</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1018,33 +1008,37 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM4" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1052,20 +1046,10 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1074,66 +1058,70 @@
       <c r="B5" t="n">
         <v>57437145</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>3.15572113764533</v>
+      </c>
       <c r="D5" t="n">
-        <v>3.15572113764533</v>
+        <v>51.3</v>
       </c>
       <c r="E5" t="n">
-        <v>51.3</v>
+        <v>59.2</v>
       </c>
       <c r="F5" t="n">
-        <v>59.2</v>
+        <v>53.2535161109898</v>
       </c>
       <c r="G5" t="n">
-        <v>53.2535161109898</v>
-      </c>
-      <c r="H5" t="n">
         <v>4.05194997787476</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>1506000</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>56.1</v>
+      </c>
       <c r="L5" t="n">
-        <v>56.1</v>
+        <v>25.4716987609863</v>
       </c>
       <c r="M5" t="n">
-        <v>25.4716987609863</v>
+        <v>-0.779476463794708</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.779476463794708</v>
+        <v>-0.475951611995697</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.475951611995697</v>
+        <v>-0.380523890256882</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.380523890256882</v>
+        <v>-0.573051035404205</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.573051035404205</v>
+        <v>29.0476188659668</v>
       </c>
       <c r="R5" t="n">
-        <v>29.0476188659668</v>
+        <v>4.75998593558216</v>
       </c>
       <c r="S5" t="n">
-        <v>4.75998593558216</v>
+        <v>3.494458488561813</v>
       </c>
       <c r="T5" t="n">
-        <v>3.494458488561813</v>
+        <v>55.3281861083023</v>
       </c>
       <c r="U5" t="n">
-        <v>55.3281861083023</v>
+        <v>28.2133927251419</v>
       </c>
       <c r="V5" t="n">
-        <v>28.2133927251419</v>
+        <v>43.0093</v>
       </c>
       <c r="W5" t="n">
-        <v>43.0093</v>
-      </c>
-      <c r="X5" t="n">
         <v>2.62199661908683</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1161,41 +1149,45 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1203,20 +1195,10 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1229,58 +1211,62 @@
       <c r="B6" t="n">
         <v>59174891</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>2.98060939385811</v>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>53.4064794475076</v>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="I6" t="n">
         <v>1527000</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>56.3</v>
+      </c>
       <c r="L6" t="n">
-        <v>56.3</v>
+        <v>30.6603775024414</v>
       </c>
       <c r="M6" t="n">
-        <v>30.6603775024414</v>
+        <v>-0.854386746883392</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.854386746883392</v>
+        <v>-0.420570701360703</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.420570701360703</v>
+        <v>-0.521158754825592</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.521158754825592</v>
+        <v>-0.567784249782562</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.567784249782562</v>
+        <v>28.0952377319336</v>
       </c>
       <c r="R6" t="n">
-        <v>28.0952377319336</v>
+        <v>4.59485426006108</v>
       </c>
       <c r="S6" t="n">
-        <v>4.59485426006108</v>
+        <v>3.464280579990205</v>
       </c>
       <c r="T6" t="n">
-        <v>3.464280579990205</v>
+        <v>56.8787467857379</v>
       </c>
       <c r="U6" t="n">
-        <v>56.8787467857379</v>
-      </c>
-      <c r="V6" t="n">
         <v>29.6802357492442</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>2.580486375547358</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1308,33 +1294,37 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1342,20 +1332,10 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1364,60 +1344,64 @@
       <c r="B7" t="n">
         <v>60972798</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="C7" t="n">
         <v>2.99305168844906</v>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" t="n">
         <v>53.6083841322846</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>1.792</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>82.84999999999999</v>
+      </c>
       <c r="K7" t="n">
-        <v>82.84999999999999</v>
+        <v>57.6</v>
       </c>
       <c r="L7" t="n">
-        <v>57.6</v>
+        <v>27.3584899902344</v>
       </c>
       <c r="M7" t="n">
-        <v>27.3584899902344</v>
+        <v>-0.73927241563797</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.73927241563797</v>
+        <v>-0.405753612518311</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.405753612518311</v>
+        <v>-0.735241413116455</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.735241413116455</v>
+        <v>-0.615206003189087</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.615206003189087</v>
+        <v>26.1904754638672</v>
       </c>
       <c r="R7" t="n">
-        <v>26.1904754638672</v>
+        <v>3.74921291744897</v>
       </c>
       <c r="S7" t="n">
-        <v>3.74921291744897</v>
+        <v>3.290290627983255</v>
       </c>
       <c r="T7" t="n">
-        <v>3.290290627983255</v>
+        <v>58.4288709914851</v>
       </c>
       <c r="U7" t="n">
-        <v>58.4288709914851</v>
+        <v>31.1602899873696</v>
       </c>
       <c r="V7" t="n">
-        <v>31.1602899873696</v>
-      </c>
-      <c r="W7" t="n">
         <v>40.88048</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1445,25 +1429,25 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1476,23 +1460,17 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1505,52 +1483,56 @@
       <c r="B8" t="n">
         <v>62830412</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>3.00113934816488</v>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>53.839348530772</v>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>58.7</v>
+      </c>
       <c r="L8" t="n">
-        <v>58.7</v>
+        <v>34.4339637756348</v>
       </c>
       <c r="M8" t="n">
-        <v>34.4339637756348</v>
+        <v>-0.648341059684753</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.648341059684753</v>
+        <v>-0.39461013674736</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.39461013674736</v>
+        <v>-0.7145538926124571</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.7145538926124571</v>
+        <v>-0.551462709903717</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.551462709903717</v>
-      </c>
-      <c r="R8" t="n">
         <v>29.0476188659668</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>3.690919588021988</v>
+      </c>
       <c r="T8" t="n">
-        <v>3.690919588021988</v>
+        <v>59.9769893426504</v>
       </c>
       <c r="U8" t="n">
-        <v>59.9769893426504</v>
-      </c>
-      <c r="V8" t="n">
         <v>32.6535108479798</v>
       </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1576,48 +1558,42 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1626,56 +1602,60 @@
       <c r="B9" t="n">
         <v>64711821</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>2.95046658393064</v>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>54.0487270478758</v>
+      </c>
       <c r="G9" t="n">
-        <v>54.0487270478758</v>
-      </c>
-      <c r="H9" t="n">
         <v>6.54216003417969</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>58.2</v>
+      </c>
       <c r="L9" t="n">
-        <v>58.2</v>
+        <v>37.2641525268555</v>
       </c>
       <c r="M9" t="n">
-        <v>37.2641525268555</v>
+        <v>-0.460365831851959</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.460365831851959</v>
+        <v>-0.354882270097733</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.354882270097733</v>
+        <v>-0.65319699048996</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.65319699048996</v>
+        <v>-0.462281912565231</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.462281912565231</v>
-      </c>
-      <c r="R9" t="n">
         <v>30.1886787414551</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4.350272042691012</v>
+      </c>
       <c r="T9" t="n">
-        <v>4.350272042691012</v>
+        <v>61.5231007781577</v>
       </c>
       <c r="U9" t="n">
-        <v>61.5231007781577</v>
+        <v>34.1608687863697</v>
       </c>
       <c r="V9" t="n">
-        <v>34.1608687863697</v>
-      </c>
-      <c r="W9" t="n">
         <v>70.08584999999999</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1701,52 +1681,46 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1759,52 +1733,56 @@
       <c r="B10" t="n">
         <v>66617606</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>2.90250073555304</v>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+      <c r="F10" t="n">
         <v>54.2329053806519</v>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>58</v>
+      </c>
       <c r="L10" t="n">
-        <v>58</v>
+        <v>44.0758285522461</v>
       </c>
       <c r="M10" t="n">
-        <v>44.0758285522461</v>
+        <v>-0.455080926418304</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.455080926418304</v>
+        <v>-0.319897323846817</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.319897323846817</v>
+        <v>-0.533726751804352</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.533726751804352</v>
+        <v>-0.373498290777206</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.373498290777206</v>
-      </c>
-      <c r="R10" t="n">
         <v>30.1886787414551</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>3.799232913849163</v>
+      </c>
       <c r="T10" t="n">
-        <v>3.799232913849163</v>
+        <v>63.0660884066509</v>
       </c>
       <c r="U10" t="n">
-        <v>63.0660884066509</v>
-      </c>
-      <c r="V10" t="n">
         <v>35.6824982712263</v>
       </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1830,48 +1808,42 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1880,15 +1852,15 @@
       <c r="B11" t="n">
         <v>68560157</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>2.87426672866542</v>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="F11" t="n">
         <v>54.4188908435551</v>
       </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1900,16 +1872,16 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>3.056946763123725</v>
+      </c>
       <c r="T11" t="n">
-        <v>3.056946763123725</v>
+        <v>64.6059619473789</v>
       </c>
       <c r="U11" t="n">
-        <v>64.6059619473789</v>
-      </c>
-      <c r="V11" t="n">
         <v>37.2193614570345</v>
       </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
@@ -1918,39 +1890,37 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,195 +446,205 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Pobreza_Multidimennsional_Porcentual</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Crecimiento_Poblacional</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -647,64 +657,60 @@
       <c r="B2" t="n">
         <v>52020962</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
         <v>3.26181042317192</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>52.525953864521</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5.27380990982056</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
         <v>1137000</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>48.8</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>30.9523811340332</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-0.653441548347473</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>-0.709870934486389</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-0.222135826945305</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.395599663257599</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>36.6666679382324</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>7.20094334280093</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>5.588169529592981</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>50.6761681803936</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>23.8834363913571</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>2.185657389419288</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -732,41 +738,37 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AF2" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -774,10 +776,20 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -786,64 +798,60 @@
       <c r="B3" t="n">
         <v>53824013</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>3.40729531415315</v>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>52.8248609036268</v>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>1284000</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>55</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>28.5714282989502</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-0.606901288032532</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>-0.531419515609741</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-0.223375126719475</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.396327495574951</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>6.38934150079073</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>5.174766293014932</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>52.2258564710625</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>25.3153858621226</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>47.26693</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>2.385552337021025</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -871,37 +879,33 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -909,10 +913,20 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -925,62 +939,58 @@
       <c r="B4" t="n">
         <v>55652890</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
         <v>3.3414302210835</v>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>53.0736238495431</v>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>1327000</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>56.6</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>26.1904754638672</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.682187914848328</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>-0.486995428800583</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-0.278485029935837</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.470542252063751</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>29.5238094329834</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>5.65469286500665</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>5.318716052289308</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>53.7768153446022</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>26.7585271322434</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>2.384422444189331</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1008,37 +1018,33 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1046,10 +1052,20 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1058,70 +1074,66 @@
       <c r="B5" t="n">
         <v>57437145</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>3.15572113764533</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>51.3</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>59.2</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>53.2535161109898</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4.05194997787476</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>1506000</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
         <v>56.1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>25.4716987609863</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.779476463794708</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>-0.475951611995697</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-0.380523890256882</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-0.573051035404205</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>29.0476188659668</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>4.75998593558216</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>3.494458488561813</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>55.3281861083023</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>28.2133927251419</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>43.0093</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>2.62199661908683</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1149,45 +1161,41 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1195,10 +1203,20 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1211,62 +1229,58 @@
       <c r="B6" t="n">
         <v>59174891</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
         <v>2.98060939385811</v>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>53.4064794475076</v>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>1527000</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
         <v>56.3</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>30.6603775024414</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-0.854386746883392</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>-0.420570701360703</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-0.521158754825592</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.567784249782562</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>28.0952377319336</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>4.59485426006108</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>3.464280579990205</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>56.8787467857379</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>29.6802357492442</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>2.580486375547358</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1294,37 +1308,33 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1332,10 +1342,20 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1344,64 +1364,60 @@
       <c r="B7" t="n">
         <v>60972798</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
         <v>2.99305168844906</v>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>53.6083841322846</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>1.792</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
         <v>82.84999999999999</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>57.6</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>27.3584899902344</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.73927241563797</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>-0.405753612518311</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-0.735241413116455</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.615206003189087</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>26.1904754638672</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>3.74921291744897</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>3.290290627983255</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>58.4288709914851</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>31.1602899873696</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>40.88048</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1429,25 +1445,25 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1460,17 +1476,23 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1483,56 +1505,52 @@
       <c r="B8" t="n">
         <v>62830412</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>3.00113934816488</v>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>53.839348530772</v>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
         <v>58.7</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>34.4339637756348</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.648341059684753</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>-0.39461013674736</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-0.7145538926124571</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.551462709903717</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>29.0476188659668</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>3.690919588021988</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>59.9769893426504</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>32.6535108479798</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1558,42 +1576,48 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1602,60 +1626,56 @@
       <c r="B9" t="n">
         <v>64711821</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>2.95046658393064</v>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>54.0487270478758</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>6.54216003417969</v>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
         <v>58.2</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>37.2641525268555</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>-0.460365831851959</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>-0.354882270097733</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-0.65319699048996</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.462281912565231</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>30.1886787414551</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>4.350272042691012</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>61.5231007781577</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>34.1608687863697</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>70.08584999999999</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1681,46 +1701,52 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr">
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1733,56 +1759,52 @@
       <c r="B10" t="n">
         <v>66617606</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>2.90250073555304</v>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>54.2329053806519</v>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
         <v>58</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>44.0758285522461</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>-0.455080926418304</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>-0.319897323846817</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>-0.533726751804352</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.373498290777206</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>30.1886787414551</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>3.799232913849163</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>63.0660884066509</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>35.6824982712263</v>
       </c>
-      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1808,42 +1830,48 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr">
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1852,15 +1880,15 @@
       <c r="B11" t="n">
         <v>68560157</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
         <v>2.87426672866542</v>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>54.4188908435551</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1872,16 +1900,16 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>3.056946763123725</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>64.6059619473789</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>37.2193614570345</v>
       </c>
-      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
@@ -1890,37 +1918,39 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr">
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,200 +451,190 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional</t>
+          <t>Pobreza_Poblacion_Porcentual</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual</t>
+          <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimensional_Porcentual</t>
+          <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral</t>
+          <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios</t>
+          <t>Tasa_Desempleo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo</t>
+          <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad_Turistas_Año</t>
+          <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Participacion_Fuerza_Laboral</t>
+          <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Inseguridad_Alimentaria</t>
+          <t>Estabilidad_Politica</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica</t>
+          <t>Efectividad_Gubernamental</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental</t>
+          <t>Control_Corrupcion</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion</t>
+          <t>Rendicion_Cuentas</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas</t>
+          <t>Estado_Derecho</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho</t>
+          <t>Calidad_Regulatoria</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria</t>
+          <t>Homicidios</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios</t>
+          <t>IPC</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>IPC</t>
+          <t>Acceso_Agua_Potable</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable</t>
+          <t>Acceso_Saneamiento</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Saneamiento</t>
+          <t>Poblacion_Urbana</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion_Urbana</t>
+          <t>ratio_turistas_residentes</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes</t>
+          <t>Control_Corrupcion_cat</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Control_Corrupcion_cat</t>
+          <t>Estado_Derecho_cat</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Estado_Derecho_cat</t>
+          <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Efectividad_Gubernamental_cat</t>
+          <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Rendicion_Cuentas_cat</t>
+          <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Estabilidad_Politica_cat</t>
+          <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Calidad_Regulatoria_cat</t>
+          <t>Homicidios_cat</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Homicidios_cat</t>
+          <t>IPC_cat</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Crecimiento_Poblacional_cat</t>
+          <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>IPC_cat</t>
+          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Poblacion_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Pobreza_Multidimennsional_Porcentual_cat</t>
+          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_cat</t>
+          <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
+          <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Tasa_Desempleo_cat</t>
+          <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>ratio_turistas_residentes_cat</t>
+          <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Acceso_Agua_Potable_cat</t>
+          <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Acceso_Saneamiento_cat</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Inseguridad_Alimentaria_cat</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -658,59 +648,61 @@
         <v>52020962</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>3.26181042317192</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>52.525953864521</v>
+      </c>
       <c r="G2" t="n">
-        <v>52.525953864521</v>
-      </c>
-      <c r="H2" t="n">
         <v>5.27380990982056</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
         <v>1137000</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>48.8</v>
+      </c>
       <c r="L2" t="n">
-        <v>48.8</v>
+        <v>30.9523811340332</v>
       </c>
       <c r="M2" t="n">
-        <v>30.9523811340332</v>
+        <v>-0.653441548347473</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.653441548347473</v>
+        <v>-0.709870934486389</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.709870934486389</v>
+        <v>-0.222135826945305</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.222135826945305</v>
+        <v>-0.395599663257599</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.395599663257599</v>
+        <v>36.6666679382324</v>
       </c>
       <c r="R2" t="n">
-        <v>36.6666679382324</v>
+        <v>7.20094334280093</v>
       </c>
       <c r="S2" t="n">
-        <v>7.20094334280093</v>
+        <v>5.588169529592981</v>
       </c>
       <c r="T2" t="n">
-        <v>5.588169529592981</v>
+        <v>50.6761681803936</v>
       </c>
       <c r="U2" t="n">
-        <v>50.6761681803936</v>
-      </c>
-      <c r="V2" t="n">
         <v>23.8834363913571</v>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
         <v>2.185657389419288</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -738,7 +730,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -746,29 +738,29 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -776,20 +768,10 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -799,59 +781,61 @@
         <v>53824013</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>3.40729531415315</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>52.8248609036268</v>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="I3" t="n">
         <v>1284000</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>55</v>
+      </c>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>28.5714282989502</v>
       </c>
       <c r="M3" t="n">
-        <v>28.5714282989502</v>
+        <v>-0.606901288032532</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.606901288032532</v>
+        <v>-0.531419515609741</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.531419515609741</v>
+        <v>-0.223375126719475</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.223375126719475</v>
+        <v>-0.396327495574951</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.396327495574951</v>
+        <v>34.2857131958008</v>
       </c>
       <c r="R3" t="n">
-        <v>34.2857131958008</v>
+        <v>6.38934150079073</v>
       </c>
       <c r="S3" t="n">
-        <v>6.38934150079073</v>
+        <v>5.174766293014932</v>
       </c>
       <c r="T3" t="n">
-        <v>5.174766293014932</v>
+        <v>52.2258564710625</v>
       </c>
       <c r="U3" t="n">
-        <v>52.2258564710625</v>
+        <v>25.3153858621226</v>
       </c>
       <c r="V3" t="n">
-        <v>25.3153858621226</v>
+        <v>47.26693</v>
       </c>
       <c r="W3" t="n">
-        <v>47.26693</v>
-      </c>
-      <c r="X3" t="n">
         <v>2.385552337021025</v>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -879,7 +863,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -887,25 +871,25 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -913,20 +897,10 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -940,57 +914,59 @@
         <v>55652890</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>3.3414302210835</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>53.0736238495431</v>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="I4" t="n">
         <v>1327000</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>56.6</v>
+      </c>
       <c r="L4" t="n">
-        <v>56.6</v>
+        <v>26.1904754638672</v>
       </c>
       <c r="M4" t="n">
-        <v>26.1904754638672</v>
+        <v>-0.682187914848328</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.682187914848328</v>
+        <v>-0.486995428800583</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.486995428800583</v>
+        <v>-0.278485029935837</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.278485029935837</v>
+        <v>-0.470542252063751</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.470542252063751</v>
+        <v>29.5238094329834</v>
       </c>
       <c r="R4" t="n">
-        <v>29.5238094329834</v>
+        <v>5.65469286500665</v>
       </c>
       <c r="S4" t="n">
-        <v>5.65469286500665</v>
+        <v>5.318716052289308</v>
       </c>
       <c r="T4" t="n">
-        <v>5.318716052289308</v>
+        <v>53.7768153446022</v>
       </c>
       <c r="U4" t="n">
-        <v>53.7768153446022</v>
-      </c>
-      <c r="V4" t="n">
         <v>26.7585271322434</v>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
         <v>2.384422444189331</v>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1018,7 +994,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1026,25 +1002,25 @@
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM4" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1052,20 +1028,10 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1076,64 +1042,66 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>3.15572113764533</v>
+        <v>51.3</v>
       </c>
       <c r="E5" t="n">
-        <v>51.3</v>
+        <v>59.2</v>
       </c>
       <c r="F5" t="n">
-        <v>59.2</v>
+        <v>53.2535161109898</v>
       </c>
       <c r="G5" t="n">
-        <v>53.2535161109898</v>
-      </c>
-      <c r="H5" t="n">
         <v>4.05194997787476</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>1506000</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>56.1</v>
+      </c>
       <c r="L5" t="n">
-        <v>56.1</v>
+        <v>25.4716987609863</v>
       </c>
       <c r="M5" t="n">
-        <v>25.4716987609863</v>
+        <v>-0.779476463794708</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.779476463794708</v>
+        <v>-0.475951611995697</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.475951611995697</v>
+        <v>-0.380523890256882</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.380523890256882</v>
+        <v>-0.573051035404205</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.573051035404205</v>
+        <v>29.0476188659668</v>
       </c>
       <c r="R5" t="n">
-        <v>29.0476188659668</v>
+        <v>4.75998593558216</v>
       </c>
       <c r="S5" t="n">
-        <v>4.75998593558216</v>
+        <v>3.494458488561813</v>
       </c>
       <c r="T5" t="n">
-        <v>3.494458488561813</v>
+        <v>55.3281861083023</v>
       </c>
       <c r="U5" t="n">
-        <v>55.3281861083023</v>
+        <v>28.2133927251419</v>
       </c>
       <c r="V5" t="n">
-        <v>28.2133927251419</v>
+        <v>43.0093</v>
       </c>
       <c r="W5" t="n">
-        <v>43.0093</v>
-      </c>
-      <c r="X5" t="n">
         <v>2.62199661908683</v>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1161,12 +1129,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>MEDIO ⭤</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1174,28 +1142,28 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1203,20 +1171,10 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1230,57 +1188,59 @@
         <v>59174891</v>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>2.98060939385811</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>53.4064794475076</v>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="I6" t="n">
         <v>1527000</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>56.3</v>
+      </c>
       <c r="L6" t="n">
-        <v>56.3</v>
+        <v>30.6603775024414</v>
       </c>
       <c r="M6" t="n">
-        <v>30.6603775024414</v>
+        <v>-0.854386746883392</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.854386746883392</v>
+        <v>-0.420570701360703</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.420570701360703</v>
+        <v>-0.521158754825592</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.521158754825592</v>
+        <v>-0.567784249782562</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.567784249782562</v>
+        <v>28.0952377319336</v>
       </c>
       <c r="R6" t="n">
-        <v>28.0952377319336</v>
+        <v>4.59485426006108</v>
       </c>
       <c r="S6" t="n">
-        <v>4.59485426006108</v>
+        <v>3.464280579990205</v>
       </c>
       <c r="T6" t="n">
-        <v>3.464280579990205</v>
+        <v>56.8787467857379</v>
       </c>
       <c r="U6" t="n">
-        <v>56.8787467857379</v>
-      </c>
-      <c r="V6" t="n">
         <v>29.6802357492442</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
         <v>2.580486375547358</v>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1308,33 +1268,33 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AM6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1342,20 +1302,10 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1365,59 +1315,61 @@
         <v>60972798</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>2.99305168844906</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" t="n">
         <v>53.6083841322846</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>1.792</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>82.84999999999999</v>
+      </c>
       <c r="K7" t="n">
-        <v>82.84999999999999</v>
+        <v>57.6</v>
       </c>
       <c r="L7" t="n">
-        <v>57.6</v>
+        <v>27.3584899902344</v>
       </c>
       <c r="M7" t="n">
-        <v>27.3584899902344</v>
+        <v>-0.73927241563797</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.73927241563797</v>
+        <v>-0.405753612518311</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.405753612518311</v>
+        <v>-0.735241413116455</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.735241413116455</v>
+        <v>-0.615206003189087</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.615206003189087</v>
+        <v>26.1904754638672</v>
       </c>
       <c r="R7" t="n">
-        <v>26.1904754638672</v>
+        <v>3.74921291744897</v>
       </c>
       <c r="S7" t="n">
-        <v>3.74921291744897</v>
+        <v>3.290290627983255</v>
       </c>
       <c r="T7" t="n">
-        <v>3.290290627983255</v>
+        <v>58.4288709914851</v>
       </c>
       <c r="U7" t="n">
-        <v>58.4288709914851</v>
+        <v>31.1602899873696</v>
       </c>
       <c r="V7" t="n">
-        <v>31.1602899873696</v>
-      </c>
-      <c r="W7" t="n">
         <v>40.88048</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1445,25 +1397,21 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1476,23 +1424,17 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1506,51 +1448,53 @@
         <v>62830412</v>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>3.00113934816488</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
+      <c r="F8" t="n">
         <v>53.839348530772</v>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>58.7</v>
+      </c>
       <c r="L8" t="n">
-        <v>58.7</v>
+        <v>34.4339637756348</v>
       </c>
       <c r="M8" t="n">
-        <v>34.4339637756348</v>
+        <v>-0.648341059684753</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.648341059684753</v>
+        <v>-0.39461013674736</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.39461013674736</v>
+        <v>-0.7145538926124571</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.7145538926124571</v>
+        <v>-0.551462709903717</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.551462709903717</v>
-      </c>
-      <c r="R8" t="n">
         <v>29.0476188659668</v>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>3.690919588021988</v>
+      </c>
       <c r="T8" t="n">
-        <v>3.690919588021988</v>
+        <v>59.9769893426504</v>
       </c>
       <c r="U8" t="n">
-        <v>59.9769893426504</v>
-      </c>
-      <c r="V8" t="n">
         <v>32.6535108479798</v>
       </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1576,48 +1520,38 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1627,55 +1561,57 @@
         <v>64711821</v>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>2.95046658393064</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>54.0487270478758</v>
+      </c>
       <c r="G9" t="n">
-        <v>54.0487270478758</v>
-      </c>
-      <c r="H9" t="n">
         <v>6.54216003417969</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>58.2</v>
+      </c>
       <c r="L9" t="n">
-        <v>58.2</v>
+        <v>37.2641525268555</v>
       </c>
       <c r="M9" t="n">
-        <v>37.2641525268555</v>
+        <v>-0.460365831851959</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.460365831851959</v>
+        <v>-0.354882270097733</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.354882270097733</v>
+        <v>-0.65319699048996</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.65319699048996</v>
+        <v>-0.462281912565231</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.462281912565231</v>
-      </c>
-      <c r="R9" t="n">
         <v>30.1886787414551</v>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4.350272042691012</v>
+      </c>
       <c r="T9" t="n">
-        <v>4.350272042691012</v>
+        <v>61.5231007781577</v>
       </c>
       <c r="U9" t="n">
-        <v>61.5231007781577</v>
+        <v>34.1608687863697</v>
       </c>
       <c r="V9" t="n">
-        <v>34.1608687863697</v>
-      </c>
-      <c r="W9" t="n">
         <v>70.08584999999999</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1701,52 +1637,42 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1760,51 +1686,53 @@
         <v>66617606</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>2.90250073555304</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="n">
+      <c r="F10" t="n">
         <v>54.2329053806519</v>
       </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>58</v>
+      </c>
       <c r="L10" t="n">
-        <v>58</v>
+        <v>44.0758285522461</v>
       </c>
       <c r="M10" t="n">
-        <v>44.0758285522461</v>
+        <v>-0.455080926418304</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.455080926418304</v>
+        <v>-0.319897323846817</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.319897323846817</v>
+        <v>-0.533726751804352</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.533726751804352</v>
+        <v>-0.373498290777206</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.373498290777206</v>
-      </c>
-      <c r="R10" t="n">
         <v>30.1886787414551</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>3.799232913849163</v>
+      </c>
       <c r="T10" t="n">
-        <v>3.799232913849163</v>
+        <v>63.0660884066509</v>
       </c>
       <c r="U10" t="n">
-        <v>63.0660884066509</v>
-      </c>
-      <c r="V10" t="n">
         <v>35.6824982712263</v>
       </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1830,48 +1758,38 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>MEDIO ⭤</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>MEDIO ⭤</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1881,14 +1799,12 @@
         <v>68560157</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>2.87426672866542</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="F11" t="n">
         <v>54.4188908435551</v>
       </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1900,16 +1816,16 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>3.056946763123725</v>
+      </c>
       <c r="T11" t="n">
-        <v>3.056946763123725</v>
+        <v>64.6059619473789</v>
       </c>
       <c r="U11" t="n">
-        <v>64.6059619473789</v>
-      </c>
-      <c r="V11" t="n">
         <v>37.2193614570345</v>
       </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
@@ -1918,39 +1834,33 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,190 +451,200 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Crecimiento_Poblacional</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Pobreza_Poblacion_Porcentual</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Crecimiento_Poblacional_cat</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
@@ -648,61 +658,59 @@
         <v>52020962</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>3.26181042317192</v>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>52.525953864521</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5.27380990982056</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
         <v>1137000</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>48.8</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>30.9523811340332</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-0.653441548347473</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>-0.709870934486389</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-0.222135826945305</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.395599663257599</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>36.6666679382324</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>7.20094334280093</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>5.588169529592981</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>50.6761681803936</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>23.8834363913571</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>2.185657389419288</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -730,37 +738,37 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -768,10 +776,20 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -781,61 +799,59 @@
         <v>53824013</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>3.40729531415315</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>52.8248609036268</v>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>1284000</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>55</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>28.5714282989502</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-0.606901288032532</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>-0.531419515609741</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-0.223375126719475</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.396327495574951</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>34.2857131958008</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>6.38934150079073</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>5.174766293014932</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>52.2258564710625</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>25.3153858621226</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>47.26693</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>2.385552337021025</v>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -863,33 +879,33 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -897,10 +913,20 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -914,59 +940,57 @@
         <v>55652890</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>3.3414302210835</v>
+      </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>53.0736238495431</v>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>1327000</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>56.6</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>26.1904754638672</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.682187914848328</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>-0.486995428800583</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-0.278485029935837</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-0.470542252063751</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>29.5238094329834</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>5.65469286500665</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>5.318716052289308</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>53.7768153446022</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>26.7585271322434</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
         <v>2.384422444189331</v>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -994,33 +1018,33 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1028,10 +1052,20 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,66 +1076,64 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
+        <v>3.15572113764533</v>
+      </c>
+      <c r="E5" t="n">
         <v>51.3</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>59.2</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>53.2535161109898</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4.05194997787476</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>1506000</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
         <v>56.1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>25.4716987609863</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.779476463794708</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>-0.475951611995697</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-0.380523890256882</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>-0.573051035404205</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>29.0476188659668</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>4.75998593558216</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>3.494458488561813</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>55.3281861083023</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>28.2133927251419</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>43.0093</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>2.62199661908683</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1129,41 +1161,41 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr"/>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1171,10 +1203,20 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1188,59 +1230,57 @@
         <v>59174891</v>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2.98060939385811</v>
+      </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
         <v>53.4064794475076</v>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>1527000</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
         <v>56.3</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>30.6603775024414</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-0.854386746883392</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>-0.420570701360703</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-0.521158754825592</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.567784249782562</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>28.0952377319336</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>4.59485426006108</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>3.464280579990205</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>56.8787467857379</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>29.6802357492442</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
         <v>2.580486375547358</v>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1268,33 +1308,33 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr">
         <is>
           <t>BAJO ⭣</t>
@@ -1302,10 +1342,20 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1315,61 +1365,59 @@
         <v>60972798</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>2.99305168844906</v>
+      </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
         <v>53.6083841322846</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>1.792</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
         <v>82.84999999999999</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>57.6</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>27.3584899902344</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.73927241563797</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>-0.405753612518311</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-0.735241413116455</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.615206003189087</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>26.1904754638672</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>3.74921291744897</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>3.290290627983255</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>58.4288709914851</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>31.1602899873696</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>40.88048</v>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1397,21 +1445,25 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1424,17 +1476,23 @@
           <t>BAJO ⭣</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
+          <t>BAJO ⭣</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1448,53 +1506,51 @@
         <v>62830412</v>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>3.00113934816488</v>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
         <v>53.839348530772</v>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
         <v>58.7</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>34.4339637756348</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.648341059684753</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>-0.39461013674736</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-0.7145538926124571</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>-0.551462709903717</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>29.0476188659668</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>3.690919588021988</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>59.9769893426504</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>32.6535108479798</v>
       </c>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1520,38 +1576,48 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr"/>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1561,57 +1627,55 @@
         <v>64711821</v>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>2.95046658393064</v>
+      </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
         <v>54.0487270478758</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>6.54216003417969</v>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
         <v>58.2</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>37.2641525268555</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>-0.460365831851959</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>-0.354882270097733</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-0.65319699048996</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>-0.462281912565231</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>30.1886787414551</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>4.350272042691012</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>61.5231007781577</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>34.1608687863697</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>70.08584999999999</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1637,42 +1701,52 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr">
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
         </is>
@@ -1686,53 +1760,51 @@
         <v>66617606</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>2.90250073555304</v>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>54.2329053806519</v>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
         <v>58</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>44.0758285522461</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>-0.455080926418304</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>-0.319897323846817</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>-0.533726751804352</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>-0.373498290777206</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>30.1886787414551</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>3.799232913849163</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>63.0660884066509</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>35.6824982712263</v>
       </c>
-      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ALTO ⭡</t>
@@ -1758,38 +1830,48 @@
           <t>ALTO ⭡</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr">
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>ALTO ⭡</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1799,12 +1881,14 @@
         <v>68560157</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>2.87426672866542</v>
+      </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
         <v>54.4188908435551</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1816,16 +1900,16 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>3.056946763123725</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>64.6059619473789</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>37.2193614570345</v>
       </c>
-      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
@@ -1834,33 +1918,39 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr">
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>ALTO ⭡</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
+      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr">
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>MEDIO ⭤</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>BAJO ⭣</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>BAJO ⭣</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -760,12 +760,12 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr"/>
@@ -776,12 +776,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -901,7 +901,7 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr"/>
@@ -913,12 +913,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1040,7 +1040,7 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr"/>
@@ -1052,12 +1052,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1187,12 +1187,12 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr"/>
@@ -1203,12 +1203,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1330,7 +1330,7 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1467,24 +1467,24 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1596,7 +1596,7 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr"/>
@@ -1604,12 +1604,12 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -1721,12 +1721,12 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr"/>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -1933,7 +1933,7 @@
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr"/>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>BAJO ⭣</t>
+          <t>ALTO ⭡</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr"/>

--- a/Historico.xlsx
+++ b/Historico.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,217 +422,217 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>año</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Poblacion_Destino</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimensional_Porcentual</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Cantidad_Turistas_Año</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Tasa_Participacion_Fuerza_Laboral</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Control_Corrupcion</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Estado_Derecho</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Homicidios</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>IPC</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Control_Corrupcion_cat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Estado_Derecho_cat</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Efectividad_Gubernamental_cat</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Rendicion_Cuentas_cat</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Estabilidad_Politica_cat</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Calidad_Regulatoria_cat</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Homicidios_cat</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Crecimiento_Poblacional_cat</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>IPC_cat</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Pobreza_Poblacion_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>Pobreza_Multidimennsional_Porcentual_cat</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_cat</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>Porcentaje_Edad_Laboral_Estudios_cat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>Tasa_Desempleo_cat</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>ratio_turistas_residentes_cat</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Acceso_Agua_Potable_cat</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Acceso_Saneamiento_cat</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Inseguridad_Alimentaria_cat</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Poblacion_Urbana_cat</t>
         </is>
